--- a/inputs/en/Optima_template.xlsx
+++ b/inputs/en/Optima_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE69DF-BE4C-4CD2-A66B-1F47C51D0F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CDB60-4687-4849-96B1-112EA339DEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -2327,8 +2327,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3511,7 +3511,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -13629,12 +13629,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GEHiGU/wzMESSzNocXwPkaIr4XGdamS9vmVQvyC3AZJHmUXgJGyneI4jc1TC32WmhOi7y0hwZVPwY8duXyz3Tw==" saltValue="r4SSSOoEaaDH7zhAAgw2UA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -13644,36 +13668,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -28175,8 +28175,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28236,13 +28236,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -28256,13 +28256,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -28276,13 +28276,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="G4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="H4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -28322,10 +28322,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G6" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H6" s="85">
         <v>0</v>
@@ -28365,10 +28365,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G8" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H8" s="85">
         <v>0</v>
@@ -28411,10 +28411,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G10" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H10" s="85">
         <v>0</v>
@@ -28454,10 +28454,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G12" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H12" s="85">
         <v>0</v>
@@ -28500,10 +28500,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G14" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H14" s="85">
         <v>0</v>
@@ -28543,10 +28543,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G16" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H16" s="85">
         <v>0</v>
@@ -28589,7 +28589,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="85">
         <v>0.62</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="85">
         <v>0.62</v>
@@ -28652,13 +28652,13 @@
         <v>338</v>
       </c>
       <c r="D21" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="85">
         <v>0</v>
       </c>
       <c r="F21" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -28678,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -28698,13 +28698,13 @@
         <v>338</v>
       </c>
       <c r="D23" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="85">
         <v>0</v>
       </c>
       <c r="F23" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -28724,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -28744,13 +28744,13 @@
         <v>338</v>
       </c>
       <c r="D25" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="85">
         <v>0</v>
       </c>
       <c r="F25" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -28796,7 +28796,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="85">
         <v>1</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="85">
         <v>0</v>
@@ -28836,7 +28836,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="85">
         <v>0</v>
@@ -28862,7 +28862,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="85">
         <v>1</v>
@@ -28882,7 +28882,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="85">
         <v>0</v>
@@ -28902,7 +28902,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="85">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="85">
         <v>1</v>
@@ -28948,7 +28948,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="85">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="85">
         <v>1</v>
@@ -29014,7 +29014,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
@@ -29034,7 +29034,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -29060,7 +29060,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="85">
         <v>1</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -29126,7 +29126,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="85">
         <v>0.3</v>
@@ -29146,7 +29146,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="85">
         <v>0.5</v>
@@ -29166,7 +29166,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="85">
         <v>0.65</v>
@@ -29189,7 +29189,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="85">
         <v>0.3</v>
@@ -29209,7 +29209,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="85">
         <v>0.49</v>
@@ -29229,7 +29229,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="85">
         <v>0.52</v>
@@ -29255,7 +29255,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="85">
         <v>0.88</v>
@@ -29269,19 +29269,19 @@
         <v>339</v>
       </c>
       <c r="D49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -29295,19 +29295,19 @@
         <v>338</v>
       </c>
       <c r="D50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -29321,7 +29321,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="85">
         <v>0.86</v>
@@ -29347,7 +29347,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
@@ -29367,7 +29367,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="85">
         <v>0</v>
@@ -29429,15 +29429,15 @@
       </c>
       <c r="F57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -29454,15 +29454,15 @@
       </c>
       <c r="F58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -29479,15 +29479,15 @@
       </c>
       <c r="F59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="G59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="H59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -29535,11 +29535,11 @@
       </c>
       <c r="F61" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G61" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H61" s="85">
         <f t="shared" si="0"/>
@@ -29588,11 +29588,11 @@
       </c>
       <c r="F63" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G63" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H63" s="85">
         <f t="shared" si="0"/>
@@ -29644,11 +29644,11 @@
       </c>
       <c r="F65" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G65" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H65" s="85">
         <f t="shared" si="0"/>
@@ -29697,11 +29697,11 @@
       </c>
       <c r="F67" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G67" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H67" s="85">
         <f t="shared" si="1"/>
@@ -29753,11 +29753,11 @@
       </c>
       <c r="F69" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G69" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H69" s="85">
         <f t="shared" si="1"/>
@@ -29806,11 +29806,11 @@
       </c>
       <c r="F71" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G71" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H71" s="85">
         <f t="shared" si="1"/>
@@ -29862,7 +29862,7 @@
       </c>
       <c r="F73" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="85">
         <f t="shared" si="1"/>
@@ -29915,7 +29915,7 @@
       </c>
       <c r="F75" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="85">
         <f t="shared" si="1"/>
@@ -29938,7 +29938,7 @@
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="85">
         <f t="shared" si="1"/>
@@ -29946,7 +29946,7 @@
       </c>
       <c r="F76" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="85">
         <f t="shared" si="1"/>
@@ -29971,7 +29971,7 @@
       </c>
       <c r="F77" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="85">
         <f t="shared" si="2"/>
@@ -29994,7 +29994,7 @@
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="85">
         <f t="shared" si="2"/>
@@ -30002,7 +30002,7 @@
       </c>
       <c r="F78" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="85">
         <f t="shared" si="2"/>
@@ -30027,7 +30027,7 @@
       </c>
       <c r="F79" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="85">
         <f t="shared" si="2"/>
@@ -30050,7 +30050,7 @@
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="85">
         <f t="shared" si="2"/>
@@ -30058,7 +30058,7 @@
       </c>
       <c r="F80" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="85">
         <f t="shared" si="2"/>
@@ -30083,7 +30083,7 @@
       </c>
       <c r="F81" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="85">
         <f t="shared" si="2"/>
@@ -30114,7 +30114,7 @@
       </c>
       <c r="F82" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="85">
         <f t="shared" si="2"/>
@@ -30139,7 +30139,7 @@
       </c>
       <c r="F83" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="85">
         <f t="shared" si="2"/>
@@ -30164,7 +30164,7 @@
       </c>
       <c r="F84" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="85">
         <f t="shared" si="2"/>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="F85" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="85">
         <f t="shared" si="2"/>
@@ -30220,7 +30220,7 @@
       </c>
       <c r="F86" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="85">
         <f t="shared" si="2"/>
@@ -30245,7 +30245,7 @@
       </c>
       <c r="F87" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="85">
         <f t="shared" si="3"/>
@@ -30276,7 +30276,7 @@
       </c>
       <c r="F88" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="85">
         <f t="shared" si="3"/>
@@ -30301,7 +30301,7 @@
       </c>
       <c r="F89" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="85">
         <f t="shared" si="3"/>
@@ -30326,7 +30326,7 @@
       </c>
       <c r="F90" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="85">
         <f t="shared" si="3"/>
@@ -30357,7 +30357,7 @@
       </c>
       <c r="F91" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="85">
         <f t="shared" si="3"/>
@@ -30382,7 +30382,7 @@
       </c>
       <c r="F92" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="85">
         <f t="shared" si="3"/>
@@ -30407,7 +30407,7 @@
       </c>
       <c r="F93" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="85">
         <f t="shared" si="3"/>
@@ -30438,7 +30438,7 @@
       </c>
       <c r="F94" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="85">
         <f t="shared" si="3"/>
@@ -30463,7 +30463,7 @@
       </c>
       <c r="F95" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="85">
         <f t="shared" si="3"/>
@@ -30488,7 +30488,7 @@
       </c>
       <c r="F96" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="85">
         <f t="shared" si="3"/>
@@ -30519,7 +30519,7 @@
       </c>
       <c r="F97" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="85">
         <f t="shared" si="4"/>
@@ -30544,7 +30544,7 @@
       </c>
       <c r="F98" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="85">
         <f t="shared" si="4"/>
@@ -30569,7 +30569,7 @@
       </c>
       <c r="F99" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="85">
         <f t="shared" si="4"/>
@@ -30597,7 +30597,7 @@
       </c>
       <c r="F100" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="85">
         <f t="shared" si="4"/>
@@ -30622,7 +30622,7 @@
       </c>
       <c r="F101" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="85">
         <f t="shared" si="4"/>
@@ -30647,7 +30647,7 @@
       </c>
       <c r="F102" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="85">
         <f t="shared" si="4"/>
@@ -30678,7 +30678,7 @@
       </c>
       <c r="F103" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="85">
         <f t="shared" si="4"/>
@@ -30695,23 +30695,23 @@
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -30726,23 +30726,23 @@
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -30759,7 +30759,7 @@
       </c>
       <c r="F106" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="85">
         <f t="shared" si="4"/>
@@ -30790,7 +30790,7 @@
       </c>
       <c r="F107" s="85">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="85">
         <f t="shared" si="5"/>
@@ -30815,7 +30815,7 @@
       </c>
       <c r="F108" s="85">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="85">
         <f t="shared" si="5"/>
@@ -30879,15 +30879,15 @@
       </c>
       <c r="F112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -30904,15 +30904,15 @@
       </c>
       <c r="F113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -30929,15 +30929,15 @@
       </c>
       <c r="F114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="G114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="H114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -30985,11 +30985,11 @@
       </c>
       <c r="F116" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G116" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H116" s="85">
         <f t="shared" si="6"/>
@@ -31038,11 +31038,11 @@
       </c>
       <c r="F118" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G118" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H118" s="85">
         <f t="shared" si="6"/>
@@ -31094,11 +31094,11 @@
       </c>
       <c r="F120" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G120" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H120" s="85">
         <f t="shared" si="6"/>
@@ -31147,11 +31147,11 @@
       </c>
       <c r="F122" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G122" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H122" s="85">
         <f t="shared" si="7"/>
@@ -31203,11 +31203,11 @@
       </c>
       <c r="F124" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G124" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H124" s="85">
         <f t="shared" si="7"/>
@@ -31256,11 +31256,11 @@
       </c>
       <c r="F126" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G126" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H126" s="85">
         <f t="shared" si="7"/>
@@ -31312,7 +31312,7 @@
       </c>
       <c r="F128" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="85">
         <f t="shared" si="7"/>
@@ -31365,7 +31365,7 @@
       </c>
       <c r="F130" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="85">
         <f t="shared" si="7"/>
@@ -31388,7 +31388,7 @@
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="85">
         <f t="shared" si="7"/>
@@ -31396,7 +31396,7 @@
       </c>
       <c r="F131" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="85">
         <f t="shared" si="7"/>
@@ -31421,7 +31421,7 @@
       </c>
       <c r="F132" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="85">
         <f t="shared" si="8"/>
@@ -31444,7 +31444,7 @@
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="85">
         <f t="shared" si="8"/>
@@ -31452,7 +31452,7 @@
       </c>
       <c r="F133" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="85">
         <f t="shared" si="8"/>
@@ -31477,7 +31477,7 @@
       </c>
       <c r="F134" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="85">
         <f t="shared" si="8"/>
@@ -31500,7 +31500,7 @@
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="85">
         <f t="shared" si="8"/>
@@ -31508,7 +31508,7 @@
       </c>
       <c r="F135" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="85">
         <f t="shared" si="8"/>
@@ -31533,7 +31533,7 @@
       </c>
       <c r="F136" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="85">
         <f t="shared" si="8"/>
@@ -31564,7 +31564,7 @@
       </c>
       <c r="F137" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="85">
         <f t="shared" si="8"/>
@@ -31589,7 +31589,7 @@
       </c>
       <c r="F138" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="85">
         <f t="shared" si="8"/>
@@ -31614,7 +31614,7 @@
       </c>
       <c r="F139" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="85">
         <f t="shared" si="8"/>
@@ -31645,7 +31645,7 @@
       </c>
       <c r="F140" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="85">
         <f t="shared" si="8"/>
@@ -31670,7 +31670,7 @@
       </c>
       <c r="F141" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="85">
         <f t="shared" si="8"/>
@@ -31695,7 +31695,7 @@
       </c>
       <c r="F142" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="85">
         <f t="shared" si="9"/>
@@ -31726,7 +31726,7 @@
       </c>
       <c r="F143" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="85">
         <f t="shared" si="9"/>
@@ -31751,7 +31751,7 @@
       </c>
       <c r="F144" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="85">
         <f t="shared" si="9"/>
@@ -31776,7 +31776,7 @@
       </c>
       <c r="F145" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="85">
         <f t="shared" si="9"/>
@@ -31807,7 +31807,7 @@
       </c>
       <c r="F146" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="85">
         <f t="shared" si="9"/>
@@ -31832,7 +31832,7 @@
       </c>
       <c r="F147" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="85">
         <f t="shared" si="9"/>
@@ -31857,7 +31857,7 @@
       </c>
       <c r="F148" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="85">
         <f t="shared" si="9"/>
@@ -31888,7 +31888,7 @@
       </c>
       <c r="F149" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="85">
         <f t="shared" si="9"/>
@@ -31913,7 +31913,7 @@
       </c>
       <c r="F150" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="85">
         <f t="shared" si="9"/>
@@ -31938,7 +31938,7 @@
       </c>
       <c r="F151" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="85">
         <f t="shared" si="9"/>
@@ -31969,7 +31969,7 @@
       </c>
       <c r="F152" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="85">
         <f t="shared" si="10"/>
@@ -31994,7 +31994,7 @@
       </c>
       <c r="F153" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="85">
         <f t="shared" si="10"/>
@@ -32019,7 +32019,7 @@
       </c>
       <c r="F154" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="85">
         <f t="shared" si="10"/>
@@ -32047,7 +32047,7 @@
       </c>
       <c r="F155" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="85">
         <f t="shared" si="10"/>
@@ -32072,7 +32072,7 @@
       </c>
       <c r="F156" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="85">
         <f t="shared" si="10"/>
@@ -32097,7 +32097,7 @@
       </c>
       <c r="F157" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="85">
         <f t="shared" si="10"/>
@@ -32128,7 +32128,7 @@
       </c>
       <c r="F158" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="85">
         <f t="shared" si="10"/>
@@ -32145,23 +32145,23 @@
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -32176,23 +32176,23 @@
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -32209,7 +32209,7 @@
       </c>
       <c r="F161" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="85">
         <f t="shared" si="10"/>
@@ -32240,7 +32240,7 @@
       </c>
       <c r="F162" s="85">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="85">
         <f t="shared" si="11"/>
@@ -32265,7 +32265,7 @@
       </c>
       <c r="F163" s="85">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="85">
         <f t="shared" si="11"/>

--- a/inputs/en/Optima_template.xlsx
+++ b/inputs/en/Optima_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE69DF-BE4C-4CD2-A66B-1F47C51D0F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B95579E-34D7-4CAC-8807-D8F4CB01DFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13515" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1562,6 +1562,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1707,7 +1713,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1958,6 +1964,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -2327,19 +2336,19 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="65" customWidth="1"/>
-    <col min="3" max="7" width="14.44140625" style="96" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="96"/>
+    <col min="1" max="1" width="27.6328125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="65" customWidth="1"/>
+    <col min="3" max="7" width="14.453125" style="96" customWidth="1"/>
+    <col min="8" max="16384" width="14.453125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2350,14 +2359,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="96" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="70"/>
       <c r="B3" s="69" t="s">
         <v>4</v>
@@ -2366,7 +2375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70"/>
       <c r="B4" s="69" t="s">
         <v>5</v>
@@ -2375,7 +2384,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="70"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2430,7 +2439,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="96"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="96" t="s">
         <v>14</v>
       </c>
@@ -2537,7 +2546,7 @@
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>30</v>
       </c>
@@ -2547,7 +2556,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="52" t="s">
         <v>31</v>
       </c>
@@ -2715,7 +2724,7 @@
       </c>
       <c r="C62" s="32"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="52"/>
     </row>
   </sheetData>
@@ -2737,20 +2746,20 @@
       <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="69" customWidth="1"/>
     <col min="2" max="2" width="20" style="96" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="96" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="96" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="96" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="96" customWidth="1"/>
+    <col min="5" max="5" width="36.36328125" style="96" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.44140625" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="14.44140625" style="96"/>
+    <col min="7" max="7" width="22.6328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.453125" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="14.453125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>156</v>
       </c>
@@ -3515,16 +3524,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="96" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="96" customWidth="1"/>
-    <col min="4" max="8" width="11.44140625" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="96"/>
+    <col min="2" max="2" width="47.90625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="96" customWidth="1"/>
+    <col min="4" max="8" width="11.453125" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
@@ -3535,7 +3544,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>179</v>
       </c>
@@ -3544,7 +3553,7 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>180</v>
       </c>
@@ -3553,7 +3562,7 @@
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>191</v>
       </c>
@@ -3562,7 +3571,7 @@
       </c>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>188</v>
       </c>
@@ -3571,77 +3580,77 @@
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3665,86 +3674,86 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="96" customWidth="1"/>
-    <col min="2" max="6" width="11.44140625" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="11.44140625" style="96"/>
+    <col min="1" max="1" width="30.08984375" style="96" customWidth="1"/>
+    <col min="2" max="6" width="11.453125" style="96" customWidth="1"/>
+    <col min="7" max="16384" width="11.453125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
     </row>
   </sheetData>
@@ -3764,7 +3773,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
@@ -3879,19 +3888,19 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>206</v>
       </c>
@@ -3938,7 +3947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>76</v>
       </c>
@@ -4499,7 +4508,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
         <v>90</v>
       </c>
@@ -4550,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="69" t="s">
         <v>168</v>
@@ -4595,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="52"/>
       <c r="B17" s="69" t="s">
         <v>179</v>
@@ -4644,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52"/>
       <c r="B18" s="69" t="s">
         <v>180</v>
@@ -4880,7 +4889,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52" t="s">
         <v>207</v>
       </c>
@@ -5130,7 +5139,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
         <v>208</v>
       </c>
@@ -5635,7 +5644,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
@@ -5673,17 +5682,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="96" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="96" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="96" customWidth="1"/>
-    <col min="6" max="10" width="11.44140625" style="96" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="96"/>
+    <col min="1" max="1" width="33.6328125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="96" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="96" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="96" customWidth="1"/>
+    <col min="6" max="10" width="11.453125" style="96" customWidth="1"/>
+    <col min="11" max="16384" width="11.453125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>212</v>
       </c>
@@ -5700,7 +5709,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>216</v>
       </c>
@@ -5718,7 +5727,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>217</v>
       </c>
@@ -5736,7 +5745,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -5754,7 +5763,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>219</v>
       </c>
@@ -5772,7 +5781,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>220</v>
       </c>
@@ -5790,7 +5799,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>221</v>
       </c>
@@ -5808,7 +5817,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>222</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>223</v>
       </c>
@@ -5844,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>224</v>
       </c>
@@ -5880,21 +5889,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.21875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="51" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="16.109375" style="51" customWidth="1"/>
-    <col min="21" max="16384" width="16.109375" style="51"/>
+    <col min="6" max="7" width="13.08984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.36328125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.90625" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="16.08984375" style="51" customWidth="1"/>
+    <col min="21" max="16384" width="16.08984375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>206</v>
       </c>
@@ -5941,7 +5950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
         <v>76</v>
       </c>
@@ -5988,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="69" t="s">
         <v>170</v>
       </c>
@@ -6032,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="69" t="s">
         <v>148</v>
       </c>
@@ -6076,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="69" t="s">
         <v>150</v>
       </c>
@@ -6120,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="69" t="s">
         <v>152</v>
       </c>
@@ -6164,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="69" t="s">
         <v>183</v>
       </c>
@@ -6208,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="69" t="s">
         <v>184</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="69" t="s">
         <v>188</v>
       </c>
@@ -6296,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="69" t="s">
         <v>190</v>
       </c>
@@ -6340,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="69" t="s">
         <v>191</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="69" t="s">
         <v>192</v>
       </c>
@@ -6428,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="69" t="s">
         <v>157</v>
       </c>
@@ -6472,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="69" t="s">
         <v>193</v>
       </c>
@@ -6516,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="69" t="s">
         <v>199</v>
       </c>
@@ -6560,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="69" t="s">
         <v>200</v>
       </c>
@@ -6604,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="69"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
@@ -6620,7 +6629,7 @@
       <c r="N17" s="79"/>
       <c r="O17" s="79"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="52" t="s">
         <v>90</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="52"/>
       <c r="B19" s="69" t="s">
         <v>168</v>
@@ -6712,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="69" t="s">
         <v>179</v>
       </c>
@@ -6756,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="69" t="s">
         <v>180</v>
       </c>
@@ -6800,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="49" t="s">
         <v>181</v>
       </c>
@@ -6844,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="69" t="s">
         <v>186</v>
       </c>
@@ -6888,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="69" t="s">
         <v>187</v>
       </c>
@@ -6932,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="69" t="s">
         <v>189</v>
       </c>
@@ -6976,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69"/>
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
@@ -6992,7 +7001,7 @@
       <c r="N26" s="79"/>
       <c r="O26" s="79"/>
     </row>
-    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="52" t="s">
         <v>207</v>
       </c>
@@ -7040,7 +7049,7 @@
       </c>
       <c r="P27" s="50"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="65" t="s">
         <v>175</v>
       </c>
@@ -7084,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="52"/>
       <c r="B29" s="65" t="s">
         <v>176</v>
@@ -7129,7 +7138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="65" t="s">
         <v>177</v>
       </c>
@@ -7173,7 +7182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="65" t="s">
         <v>178</v>
       </c>
@@ -7217,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="69"/>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -7233,7 +7242,7 @@
       <c r="N32" s="79"/>
       <c r="O32" s="79"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="52" t="s">
         <v>208</v>
       </c>
@@ -7280,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="69" t="s">
         <v>173</v>
       </c>
@@ -7324,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="69" t="s">
         <v>174</v>
       </c>
@@ -7368,7 +7377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="69" t="s">
         <v>182</v>
       </c>
@@ -7412,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="69" t="s">
         <v>185</v>
       </c>
@@ -7456,7 +7465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="69" t="s">
         <v>194</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="69" t="s">
         <v>195</v>
       </c>
@@ -7544,7 +7553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="69" t="s">
         <v>196</v>
       </c>
@@ -7588,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="69" t="s">
         <v>197</v>
       </c>
@@ -7632,7 +7641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="69" t="s">
         <v>198</v>
       </c>
@@ -7692,23 +7701,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="96" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.77734375" style="96" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="96"/>
+    <col min="1" max="1" width="58.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.81640625" style="96" customWidth="1"/>
+    <col min="16" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
@@ -7743,7 +7752,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>166</v>
       </c>
@@ -7760,7 +7769,7 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>168</v>
       </c>
@@ -7777,7 +7786,7 @@
       <c r="J3" s="82"/>
       <c r="K3" s="82"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>169</v>
       </c>
@@ -7794,7 +7803,7 @@
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>170</v>
       </c>
@@ -7811,7 +7820,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="82"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>171</v>
       </c>
@@ -7830,7 +7839,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>172</v>
       </c>
@@ -7849,7 +7858,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>173</v>
       </c>
@@ -7868,7 +7877,7 @@
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>174</v>
       </c>
@@ -7887,7 +7896,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>175</v>
       </c>
@@ -7904,7 +7913,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>176</v>
       </c>
@@ -7921,7 +7930,7 @@
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>177</v>
       </c>
@@ -7938,7 +7947,7 @@
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>178</v>
       </c>
@@ -7955,7 +7964,7 @@
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>179</v>
       </c>
@@ -7974,7 +7983,7 @@
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>180</v>
       </c>
@@ -7993,7 +8002,7 @@
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>181</v>
       </c>
@@ -8014,7 +8023,7 @@
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>182</v>
       </c>
@@ -8031,7 +8040,7 @@
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>148</v>
       </c>
@@ -8050,7 +8059,7 @@
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>150</v>
       </c>
@@ -8069,7 +8078,7 @@
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>152</v>
       </c>
@@ -8088,7 +8097,7 @@
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>183</v>
       </c>
@@ -8107,7 +8116,7 @@
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>184</v>
       </c>
@@ -8128,7 +8137,7 @@
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>185</v>
       </c>
@@ -8147,7 +8156,7 @@
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>186</v>
       </c>
@@ -8164,7 +8173,7 @@
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>187</v>
       </c>
@@ -8181,7 +8190,7 @@
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>188</v>
       </c>
@@ -8198,7 +8207,7 @@
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>189</v>
       </c>
@@ -8217,7 +8226,7 @@
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>190</v>
       </c>
@@ -8234,7 +8243,7 @@
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>191</v>
       </c>
@@ -8253,7 +8262,7 @@
       <c r="J29" s="82"/>
       <c r="K29" s="82"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>192</v>
       </c>
@@ -8274,7 +8283,7 @@
       <c r="J30" s="82"/>
       <c r="K30" s="82"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
         <v>157</v>
       </c>
@@ -8291,7 +8300,7 @@
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>193</v>
       </c>
@@ -8310,7 +8319,7 @@
       <c r="J32" s="82"/>
       <c r="K32" s="82"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>194</v>
       </c>
@@ -8329,7 +8338,7 @@
       <c r="J33" s="82"/>
       <c r="K33" s="82"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
         <v>195</v>
       </c>
@@ -8348,7 +8357,7 @@
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A35" s="69" t="s">
         <v>196</v>
       </c>
@@ -8367,7 +8376,7 @@
       <c r="J35" s="82"/>
       <c r="K35" s="82"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>197</v>
       </c>
@@ -8386,7 +8395,7 @@
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
         <v>198</v>
       </c>
@@ -8405,7 +8414,7 @@
       <c r="J37" s="82"/>
       <c r="K37" s="82"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>199</v>
       </c>
@@ -8422,7 +8431,7 @@
       <c r="J38" s="82"/>
       <c r="K38" s="82"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>200</v>
       </c>
@@ -8460,23 +8469,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="96" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.77734375" style="96" customWidth="1"/>
-    <col min="16" max="16384" width="12.77734375" style="96"/>
+    <col min="1" max="1" width="16.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.81640625" style="96" customWidth="1"/>
+    <col min="16" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>230</v>
       </c>
@@ -8511,7 +8520,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>67</v>
       </c>
@@ -8540,7 +8549,7 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>77</v>
       </c>
@@ -8569,7 +8578,7 @@
       <c r="J3" s="82"/>
       <c r="K3" s="82"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
         <v>78</v>
       </c>
@@ -8598,7 +8607,7 @@
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>79</v>
       </c>
@@ -8627,7 +8636,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="82"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>80</v>
       </c>
@@ -8656,7 +8665,7 @@
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>112</v>
       </c>
@@ -8677,7 +8686,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>113</v>
       </c>
@@ -8698,7 +8707,7 @@
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>114</v>
       </c>
@@ -8719,7 +8728,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="96" t="s">
         <v>115</v>
       </c>
@@ -8740,7 +8749,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
         <v>58</v>
       </c>
@@ -8761,7 +8770,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>59</v>
       </c>
@@ -8780,7 +8789,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>60</v>
       </c>
@@ -8799,7 +8808,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
         <v>61</v>
       </c>
@@ -8835,15 +8844,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="96" customWidth="1"/>
-    <col min="2" max="9" width="16.88671875" style="96" customWidth="1"/>
-    <col min="10" max="14" width="14.44140625" style="96" customWidth="1"/>
-    <col min="15" max="16384" width="14.44140625" style="96"/>
+    <col min="1" max="1" width="8.453125" style="96" customWidth="1"/>
+    <col min="2" max="9" width="16.90625" style="96" customWidth="1"/>
+    <col min="10" max="14" width="14.453125" style="96" customWidth="1"/>
+    <col min="15" max="16384" width="14.453125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>56</v>
       </c>
@@ -9831,16 +9840,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" style="96" customWidth="1"/>
+    <col min="1" max="1" width="48.08984375" style="96" customWidth="1"/>
     <col min="2" max="2" width="15" style="96" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="96" customWidth="1"/>
-    <col min="4" max="8" width="12.77734375" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="12.77734375" style="96"/>
+    <col min="3" max="3" width="14.6328125" style="96" customWidth="1"/>
+    <col min="4" max="8" width="12.81640625" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>231</v>
       </c>
@@ -9866,7 +9875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>232</v>
       </c>
@@ -9892,7 +9901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="107"/>
       <c r="C3" s="96" t="s">
         <v>146</v>
@@ -9914,7 +9923,7 @@
       </c>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="107"/>
       <c r="C4" s="96" t="s">
         <v>147</v>
@@ -9936,7 +9945,7 @@
       </c>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="106" t="s">
         <v>67</v>
       </c>
@@ -9960,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="107"/>
       <c r="C6" s="96" t="s">
         <v>146</v>
@@ -9981,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="107"/>
       <c r="C7" s="96" t="s">
         <v>147</v>
@@ -10002,7 +10011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="106" t="s">
         <v>77</v>
       </c>
@@ -10025,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B9" s="107"/>
       <c r="C9" s="96" t="s">
         <v>146</v>
@@ -10046,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="107"/>
       <c r="C10" s="96" t="s">
         <v>147</v>
@@ -10067,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="106" t="s">
         <v>78</v>
       </c>
@@ -10090,7 +10099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="107"/>
       <c r="C12" s="96" t="s">
         <v>146</v>
@@ -10111,7 +10120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="107"/>
       <c r="C13" s="96" t="s">
         <v>147</v>
@@ -10132,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="106" t="s">
         <v>79</v>
       </c>
@@ -10155,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="107"/>
       <c r="C15" s="96" t="s">
         <v>146</v>
@@ -10176,7 +10185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B16" s="107"/>
       <c r="C16" s="96" t="s">
         <v>147</v>
@@ -10197,7 +10206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="95" t="s">
         <v>149</v>
       </c>
@@ -10220,14 +10229,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="52" t="s">
         <v>233</v>
       </c>
@@ -10253,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="107"/>
       <c r="C20" s="96" t="s">
         <v>146</v>
@@ -10274,7 +10283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="107"/>
       <c r="C21" s="96" t="s">
         <v>147</v>
@@ -10295,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B22" s="106" t="s">
         <v>67</v>
       </c>
@@ -10318,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B23" s="107"/>
       <c r="C23" s="96" t="s">
         <v>146</v>
@@ -10339,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B24" s="107"/>
       <c r="C24" s="96" t="s">
         <v>147</v>
@@ -10360,7 +10369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B25" s="106" t="s">
         <v>77</v>
       </c>
@@ -10383,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B26" s="107"/>
       <c r="C26" s="96" t="s">
         <v>146</v>
@@ -10404,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B27" s="107"/>
       <c r="C27" s="96" t="s">
         <v>147</v>
@@ -10425,7 +10434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B28" s="106" t="s">
         <v>78</v>
       </c>
@@ -10448,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B29" s="107"/>
       <c r="C29" s="96" t="s">
         <v>146</v>
@@ -10469,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B30" s="107"/>
       <c r="C30" s="96" t="s">
         <v>147</v>
@@ -10490,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B31" s="106" t="s">
         <v>79</v>
       </c>
@@ -10513,7 +10522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B32" s="107"/>
       <c r="C32" s="96" t="s">
         <v>146</v>
@@ -10534,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B33" s="107"/>
       <c r="C33" s="96" t="s">
         <v>147</v>
@@ -10555,7 +10564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B34" s="95" t="s">
         <v>149</v>
       </c>
@@ -10578,14 +10587,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="54" t="s">
         <v>234</v>
       </c>
@@ -10611,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B37" s="107"/>
       <c r="C37" s="96" t="s">
         <v>146</v>
@@ -10632,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B38" s="107"/>
       <c r="C38" s="96" t="s">
         <v>147</v>
@@ -10653,7 +10662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B39" s="106" t="s">
         <v>67</v>
       </c>
@@ -10676,7 +10685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
       <c r="C40" s="96" t="s">
         <v>146</v>
@@ -10697,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B41" s="107"/>
       <c r="C41" s="96" t="s">
         <v>147</v>
@@ -10718,7 +10727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B42" s="106" t="s">
         <v>77</v>
       </c>
@@ -10741,7 +10750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B43" s="107"/>
       <c r="C43" s="96" t="s">
         <v>146</v>
@@ -10762,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B44" s="107"/>
       <c r="C44" s="96" t="s">
         <v>147</v>
@@ -10783,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B45" s="106" t="s">
         <v>78</v>
       </c>
@@ -10806,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B46" s="107"/>
       <c r="C46" s="96" t="s">
         <v>146</v>
@@ -10827,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B47" s="107"/>
       <c r="C47" s="96" t="s">
         <v>147</v>
@@ -10848,7 +10857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B48" s="106" t="s">
         <v>79</v>
       </c>
@@ -10871,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B49" s="107"/>
       <c r="C49" s="96" t="s">
         <v>146</v>
@@ -10892,7 +10901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B50" s="107"/>
       <c r="C50" s="96" t="s">
         <v>147</v>
@@ -10913,7 +10922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B51" s="95" t="s">
         <v>149</v>
       </c>
@@ -10936,7 +10945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="88" t="s">
         <v>235</v>
       </c>
@@ -10948,7 +10957,7 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="52" t="s">
         <v>231</v>
       </c>
@@ -10974,7 +10983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="52" t="s">
         <v>236</v>
       </c>
@@ -11005,7 +11014,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B56" s="107"/>
       <c r="C56" s="96" t="s">
         <v>146</v>
@@ -11031,7 +11040,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B57" s="107"/>
       <c r="C57" s="96" t="s">
         <v>147</v>
@@ -11057,7 +11066,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B58" s="106" t="s">
         <v>67</v>
       </c>
@@ -11085,7 +11094,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B59" s="107"/>
       <c r="C59" s="96" t="s">
         <v>146</v>
@@ -11111,7 +11120,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B60" s="107"/>
       <c r="C60" s="96" t="s">
         <v>147</v>
@@ -11137,7 +11146,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B61" s="106" t="s">
         <v>77</v>
       </c>
@@ -11165,7 +11174,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B62" s="107"/>
       <c r="C62" s="96" t="s">
         <v>146</v>
@@ -11191,7 +11200,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B63" s="107"/>
       <c r="C63" s="96" t="s">
         <v>147</v>
@@ -11217,7 +11226,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B64" s="106" t="s">
         <v>78</v>
       </c>
@@ -11245,7 +11254,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B65" s="107"/>
       <c r="C65" s="96" t="s">
         <v>146</v>
@@ -11271,7 +11280,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B66" s="107"/>
       <c r="C66" s="96" t="s">
         <v>147</v>
@@ -11297,7 +11306,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B67" s="106" t="s">
         <v>79</v>
       </c>
@@ -11325,7 +11334,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B68" s="107"/>
       <c r="C68" s="96" t="s">
         <v>146</v>
@@ -11351,7 +11360,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B69" s="107"/>
       <c r="C69" s="96" t="s">
         <v>147</v>
@@ -11377,7 +11386,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B70" s="95" t="s">
         <v>149</v>
       </c>
@@ -11405,14 +11414,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
       <c r="F71" s="81"/>
       <c r="G71" s="81"/>
       <c r="H71" s="81"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="52" t="s">
         <v>237</v>
       </c>
@@ -11443,7 +11452,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B73" s="107"/>
       <c r="C73" s="96" t="s">
         <v>146</v>
@@ -11469,7 +11478,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B74" s="107"/>
       <c r="C74" s="96" t="s">
         <v>147</v>
@@ -11495,7 +11504,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B75" s="106" t="s">
         <v>67</v>
       </c>
@@ -11523,7 +11532,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B76" s="107"/>
       <c r="C76" s="96" t="s">
         <v>146</v>
@@ -11549,7 +11558,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B77" s="107"/>
       <c r="C77" s="96" t="s">
         <v>147</v>
@@ -11575,7 +11584,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B78" s="106" t="s">
         <v>77</v>
       </c>
@@ -11603,7 +11612,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B79" s="107"/>
       <c r="C79" s="96" t="s">
         <v>146</v>
@@ -11629,7 +11638,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B80" s="107"/>
       <c r="C80" s="96" t="s">
         <v>147</v>
@@ -11655,7 +11664,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B81" s="106" t="s">
         <v>78</v>
       </c>
@@ -11683,7 +11692,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B82" s="107"/>
       <c r="C82" s="96" t="s">
         <v>146</v>
@@ -11709,7 +11718,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B83" s="107"/>
       <c r="C83" s="96" t="s">
         <v>147</v>
@@ -11735,7 +11744,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B84" s="106" t="s">
         <v>79</v>
       </c>
@@ -11763,7 +11772,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B85" s="107"/>
       <c r="C85" s="96" t="s">
         <v>146</v>
@@ -11789,7 +11798,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B86" s="107"/>
       <c r="C86" s="96" t="s">
         <v>147</v>
@@ -11815,7 +11824,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B87" s="95" t="s">
         <v>149</v>
       </c>
@@ -11843,14 +11852,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="D88" s="81"/>
       <c r="E88" s="81"/>
       <c r="F88" s="81"/>
       <c r="G88" s="81"/>
       <c r="H88" s="81"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="54" t="s">
         <v>238</v>
       </c>
@@ -11881,7 +11890,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B90" s="107"/>
       <c r="C90" s="96" t="s">
         <v>146</v>
@@ -11907,7 +11916,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B91" s="107"/>
       <c r="C91" s="96" t="s">
         <v>147</v>
@@ -11933,7 +11942,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B92" s="106" t="s">
         <v>67</v>
       </c>
@@ -11961,7 +11970,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B93" s="107"/>
       <c r="C93" s="96" t="s">
         <v>146</v>
@@ -11987,7 +11996,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B94" s="107"/>
       <c r="C94" s="96" t="s">
         <v>147</v>
@@ -12013,7 +12022,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B95" s="106" t="s">
         <v>77</v>
       </c>
@@ -12041,7 +12050,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B96" s="107"/>
       <c r="C96" s="96" t="s">
         <v>146</v>
@@ -12067,7 +12076,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B97" s="107"/>
       <c r="C97" s="96" t="s">
         <v>147</v>
@@ -12093,7 +12102,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B98" s="106" t="s">
         <v>78</v>
       </c>
@@ -12121,7 +12130,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B99" s="107"/>
       <c r="C99" s="96" t="s">
         <v>146</v>
@@ -12147,7 +12156,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B100" s="107"/>
       <c r="C100" s="96" t="s">
         <v>147</v>
@@ -12173,7 +12182,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B101" s="106" t="s">
         <v>79</v>
       </c>
@@ -12201,7 +12210,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B102" s="107"/>
       <c r="C102" s="96" t="s">
         <v>146</v>
@@ -12227,7 +12236,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B103" s="107"/>
       <c r="C103" s="96" t="s">
         <v>147</v>
@@ -12253,7 +12262,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B104" s="95" t="s">
         <v>149</v>
       </c>
@@ -12281,7 +12290,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="88" t="s">
         <v>239</v>
       </c>
@@ -12293,7 +12302,7 @@
       <c r="G106" s="88"/>
       <c r="H106" s="88"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A107" s="52" t="s">
         <v>231</v>
       </c>
@@ -12319,7 +12328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="52" t="s">
         <v>240</v>
       </c>
@@ -12722,7 +12731,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B123" s="95" t="s">
         <v>149</v>
       </c>
@@ -12757,7 +12766,7 @@
       <c r="G124" s="81"/>
       <c r="H124" s="81"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="52" t="s">
         <v>241</v>
       </c>
@@ -13160,7 +13169,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B140" s="95" t="s">
         <v>149</v>
       </c>
@@ -13195,7 +13204,7 @@
       <c r="G141" s="81"/>
       <c r="H141" s="81"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="54" t="s">
         <v>242</v>
       </c>
@@ -13598,7 +13607,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
       <c r="B157" s="95" t="s">
         <v>149</v>
       </c>
@@ -13629,12 +13638,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GEHiGU/wzMESSzNocXwPkaIr4XGdamS9vmVQvyC3AZJHmUXgJGyneI4jc1TC32WmhOi7y0hwZVPwY8duXyz3Tw==" saltValue="r4SSSOoEaaDH7zhAAgw2UA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -13644,36 +13677,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13691,23 +13700,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="96" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" style="96" customWidth="1"/>
     <col min="5" max="6" width="15" style="96" customWidth="1"/>
-    <col min="7" max="11" width="16.109375" style="96" customWidth="1"/>
-    <col min="12" max="16384" width="16.109375" style="96"/>
+    <col min="7" max="11" width="16.08984375" style="96" customWidth="1"/>
+    <col min="12" max="16384" width="16.08984375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="74"/>
       <c r="C2" s="56" t="s">
         <v>43</v>
@@ -13722,7 +13731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>244</v>
       </c>
@@ -13806,7 +13815,7 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
         <v>245</v>
       </c>
@@ -13829,7 +13838,7 @@
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
         <v>246</v>
       </c>
@@ -13838,7 +13847,7 @@
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="52" t="s">
         <v>247</v>
       </c>
@@ -13898,7 +13907,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="65"/>
       <c r="C16" s="66"/>
@@ -13906,7 +13915,7 @@
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
         <v>249</v>
       </c>
@@ -14055,7 +14064,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="65"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="88" t="s">
         <v>235</v>
       </c>
@@ -14065,12 +14074,12 @@
       <c r="E27" s="91"/>
       <c r="F27" s="91"/>
     </row>
-    <row r="28" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="74"/>
       <c r="C29" s="56" t="s">
         <v>43</v>
@@ -14085,7 +14094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52" t="s">
         <v>250</v>
       </c>
@@ -14185,7 +14194,7 @@
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>251</v>
       </c>
@@ -14206,7 +14215,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>246</v>
       </c>
@@ -14216,7 +14225,7 @@
       <c r="E38" s="63"/>
       <c r="F38" s="63"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="52" t="s">
         <v>252</v>
       </c>
@@ -14288,7 +14297,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="52"/>
       <c r="B43" s="65"/>
       <c r="C43" s="66"/>
@@ -14296,7 +14305,7 @@
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="52" t="s">
         <v>256</v>
       </c>
@@ -14474,7 +14483,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="88" t="s">
         <v>239</v>
       </c>
@@ -14484,12 +14493,12 @@
       <c r="E54" s="91"/>
       <c r="F54" s="91"/>
     </row>
-    <row r="55" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="74"/>
       <c r="C56" s="56" t="s">
         <v>43</v>
@@ -14504,7 +14513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="52" t="s">
         <v>257</v>
       </c>
@@ -14604,7 +14613,7 @@
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="52" t="s">
         <v>258</v>
       </c>
@@ -14625,7 +14634,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>246</v>
       </c>
@@ -14635,7 +14644,7 @@
       <c r="E65" s="63"/>
       <c r="F65" s="63"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="52" t="s">
         <v>259</v>
       </c>
@@ -14707,7 +14716,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="52"/>
       <c r="B70" s="65"/>
       <c r="C70" s="66"/>
@@ -14715,7 +14724,7 @@
       <c r="E70" s="53"/>
       <c r="F70" s="53"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="52" t="s">
         <v>263</v>
       </c>
@@ -14911,24 +14920,24 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="96" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="14.77734375" style="96" customWidth="1"/>
-    <col min="9" max="12" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.88671875" style="96" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="12.77734375" style="96" customWidth="1"/>
-    <col min="22" max="16384" width="12.77734375" style="96"/>
+    <col min="1" max="1" width="27.1796875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" style="96" customWidth="1"/>
+    <col min="4" max="8" width="14.81640625" style="96" customWidth="1"/>
+    <col min="9" max="12" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="12.81640625" style="96" customWidth="1"/>
+    <col min="22" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="72" t="s">
         <v>225</v>
       </c>
@@ -14962,7 +14971,7 @@
       <c r="O2" s="71"/>
       <c r="P2" s="71"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="52"/>
       <c r="B3" s="96" t="s">
         <v>81</v>
@@ -15395,7 +15404,7 @@
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
     </row>
-    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="78" t="s">
         <v>270</v>
       </c>
@@ -15653,12 +15662,12 @@
       <c r="O26" s="72"/>
       <c r="P26" s="72"/>
     </row>
-    <row r="28" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="55" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="72" t="s">
         <v>272</v>
       </c>
@@ -15692,7 +15701,7 @@
       <c r="O29" s="71"/>
       <c r="P29" s="71"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
       <c r="B30" s="96" t="s">
         <v>81</v>
@@ -16387,12 +16396,12 @@
       <c r="C54" s="78"/>
       <c r="D54" s="78"/>
     </row>
-    <row r="55" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="55" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="72" t="s">
         <v>111</v>
       </c>
@@ -16420,7 +16429,7 @@
       <c r="O56" s="71"/>
       <c r="P56" s="71"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="52"/>
       <c r="B57" s="96" t="s">
         <v>91</v>
@@ -16566,12 +16575,12 @@
       <c r="C63" s="78"/>
       <c r="D63" s="78"/>
     </row>
-    <row r="64" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="55" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="72" t="s">
         <v>118</v>
       </c>
@@ -16605,7 +16614,7 @@
       <c r="O65" s="71"/>
       <c r="P65" s="71"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="76"/>
       <c r="B66" s="96" t="s">
         <v>68</v>
@@ -17641,12 +17650,12 @@
       <c r="O101" s="72"/>
       <c r="P101" s="72"/>
     </row>
-    <row r="103" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="55" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="72" t="s">
         <v>81</v>
       </c>
@@ -17680,7 +17689,7 @@
       <c r="O104" s="71"/>
       <c r="P104" s="71"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="52"/>
       <c r="C105" s="78" t="s">
         <v>119</v>
@@ -17793,13 +17802,13 @@
       <c r="O108" s="72"/>
       <c r="P108" s="72"/>
     </row>
-    <row r="110" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="88" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="88"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="55" t="s">
         <v>264</v>
       </c>
@@ -17811,7 +17820,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="72" t="s">
         <v>225</v>
       </c>
@@ -17837,7 +17846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="52"/>
       <c r="B113" s="96" t="s">
         <v>81</v>
@@ -18456,7 +18465,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A138" s="55" t="s">
         <v>271</v>
       </c>
@@ -18468,7 +18477,7 @@
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="72" t="s">
         <v>272</v>
       </c>
@@ -18494,7 +18503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="52"/>
       <c r="B140" s="96" t="s">
         <v>81</v>
@@ -19117,7 +19126,7 @@
       <c r="C164" s="78"/>
       <c r="D164" s="78"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A165" s="55" t="s">
         <v>274</v>
       </c>
@@ -19129,7 +19138,7 @@
       <c r="G165" s="64"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="72" t="s">
         <v>111</v>
       </c>
@@ -19153,7 +19162,7 @@
       </c>
       <c r="H166" s="71"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="52"/>
       <c r="B167" s="96" t="s">
         <v>91</v>
@@ -19299,7 +19308,7 @@
       <c r="C173" s="78"/>
       <c r="D173" s="78"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="55" t="s">
         <v>278</v>
       </c>
@@ -19311,7 +19320,7 @@
       <c r="G174" s="64"/>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="72" t="s">
         <v>118</v>
       </c>
@@ -19337,7 +19346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="76"/>
       <c r="B176" s="96" t="s">
         <v>68</v>
@@ -20229,7 +20238,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="55" t="s">
         <v>280</v>
       </c>
@@ -20241,7 +20250,7 @@
       <c r="G213" s="64"/>
       <c r="H213" s="64"/>
     </row>
-    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="72" t="s">
         <v>81</v>
       </c>
@@ -20267,7 +20276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="52"/>
       <c r="C215" s="78" t="s">
         <v>119</v>
@@ -20364,13 +20373,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A220" s="88" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="88"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A221" s="55" t="s">
         <v>264</v>
       </c>
@@ -20383,7 +20392,7 @@
       <c r="H221" s="64"/>
       <c r="I221" s="64"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A222" s="72" t="s">
         <v>225</v>
       </c>
@@ -20410,7 +20419,7 @@
       </c>
       <c r="I222" s="71"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="52"/>
       <c r="B223" s="96" t="s">
         <v>81</v>
@@ -21053,7 +21062,7 @@
       </c>
       <c r="I246" s="72"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A248" s="55" t="s">
         <v>271</v>
       </c>
@@ -21066,7 +21075,7 @@
       <c r="H248" s="64"/>
       <c r="I248" s="64"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="72" t="s">
         <v>272</v>
       </c>
@@ -21093,7 +21102,7 @@
       </c>
       <c r="I249" s="71"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="52"/>
       <c r="B250" s="96" t="s">
         <v>81</v>
@@ -21740,7 +21749,7 @@
       <c r="C274" s="78"/>
       <c r="D274" s="78"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A275" s="55" t="s">
         <v>274</v>
       </c>
@@ -21753,7 +21762,7 @@
       <c r="H275" s="64"/>
       <c r="I275" s="64"/>
     </row>
-    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="72" t="s">
         <v>111</v>
       </c>
@@ -21777,7 +21786,7 @@
       </c>
       <c r="H276" s="71"/>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A277" s="52"/>
       <c r="B277" s="96" t="s">
         <v>91</v>
@@ -21923,7 +21932,7 @@
       <c r="C283" s="78"/>
       <c r="D283" s="78"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A284" s="55" t="s">
         <v>278</v>
       </c>
@@ -21936,7 +21945,7 @@
       <c r="H284" s="64"/>
       <c r="I284" s="64"/>
     </row>
-    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="72" t="s">
         <v>118</v>
       </c>
@@ -21963,7 +21972,7 @@
       </c>
       <c r="I285" s="71"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A286" s="76"/>
       <c r="B286" s="96" t="s">
         <v>68</v>
@@ -22891,7 +22900,7 @@
       </c>
       <c r="I321" s="72"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A323" s="55" t="s">
         <v>280</v>
       </c>
@@ -22904,7 +22913,7 @@
       <c r="H323" s="64"/>
       <c r="I323" s="64"/>
     </row>
-    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="72" t="s">
         <v>81</v>
       </c>
@@ -22931,7 +22940,7 @@
       </c>
       <c r="I324" s="71"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A325" s="52"/>
       <c r="C325" s="78" t="s">
         <v>119</v>
@@ -23050,25 +23059,25 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="96" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="96" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="96" customWidth="1"/>
+    <col min="1" max="1" width="44.90625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" style="96" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="96" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="96" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="96" customWidth="1"/>
     <col min="6" max="6" width="15" style="96" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.77734375" style="96"/>
+    <col min="7" max="7" width="13.6328125" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>203</v>
       </c>
@@ -23109,7 +23118,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="52"/>
       <c r="B4" s="69" t="s">
         <v>284</v>
@@ -23130,7 +23139,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>285</v>
       </c>
@@ -23223,12 +23232,12 @@
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
     </row>
-    <row r="11" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="65" t="s">
         <v>183</v>
@@ -23249,16 +23258,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="65"/>
     </row>
-    <row r="14" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>272</v>
       </c>
@@ -23281,7 +23290,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52"/>
       <c r="B16" s="69" t="s">
         <v>289</v>
@@ -23302,7 +23311,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
         <v>111</v>
       </c>
@@ -23326,12 +23335,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="55" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="52" t="s">
         <v>58</v>
       </c>
@@ -23362,12 +23371,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="55" t="s">
         <v>281</v>
       </c>
@@ -23378,7 +23387,7 @@
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="76" t="s">
         <v>203</v>
       </c>
@@ -23423,7 +23432,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
       <c r="B27" s="69" t="s">
         <v>293</v>
@@ -23449,7 +23458,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
         <v>294</v>
       </c>
@@ -23562,7 +23571,7 @@
       <c r="F33" s="69"/>
       <c r="G33" s="69"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="55" t="s">
         <v>299</v>
       </c>
@@ -23573,7 +23582,7 @@
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="65" t="s">
         <v>300</v>
@@ -23596,11 +23605,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="65"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
         <v>287</v>
       </c>
@@ -23611,7 +23620,7 @@
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="76" t="s">
         <v>272</v>
       </c>
@@ -23639,7 +23648,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="52"/>
       <c r="B39" s="69" t="s">
         <v>302</v>
@@ -23665,7 +23674,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="76" t="s">
         <v>111</v>
       </c>
@@ -23693,7 +23702,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="55" t="s">
         <v>304</v>
       </c>
@@ -23704,7 +23713,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
@@ -23742,12 +23751,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="55" t="s">
         <v>281</v>
       </c>
@@ -23758,7 +23767,7 @@
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="76" t="s">
         <v>203</v>
       </c>
@@ -23803,7 +23812,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="52"/>
       <c r="B50" s="69" t="s">
         <v>307</v>
@@ -23829,7 +23838,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="58" t="s">
         <v>308</v>
       </c>
@@ -23942,7 +23951,7 @@
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
         <v>313</v>
       </c>
@@ -23953,7 +23962,7 @@
       <c r="F57" s="64"/>
       <c r="G57" s="64"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
       <c r="B58" s="65" t="s">
         <v>314</v>
@@ -23976,11 +23985,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="58"/>
       <c r="B59" s="65"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="55" t="s">
         <v>287</v>
       </c>
@@ -23991,7 +24000,7 @@
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="76" t="s">
         <v>272</v>
       </c>
@@ -24019,7 +24028,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="52"/>
       <c r="B62" s="69" t="s">
         <v>316</v>
@@ -24045,7 +24054,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="76" t="s">
         <v>111</v>
       </c>
@@ -24073,7 +24082,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="55" t="s">
         <v>318</v>
       </c>
@@ -24084,7 +24093,7 @@
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
@@ -24141,16 +24150,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.21875" style="96" customWidth="1"/>
-    <col min="2" max="6" width="16.109375" style="96" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="96" customWidth="1"/>
-    <col min="8" max="13" width="16.109375" style="96" customWidth="1"/>
-    <col min="14" max="16384" width="16.109375" style="96"/>
+    <col min="1" max="1" width="52.1796875" style="96" customWidth="1"/>
+    <col min="2" max="6" width="16.08984375" style="96" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="96" customWidth="1"/>
+    <col min="8" max="13" width="16.08984375" style="96" customWidth="1"/>
+    <col min="14" max="16384" width="16.08984375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>156</v>
       </c>
@@ -24396,12 +24405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="70" t="s">
         <v>156</v>
       </c>
@@ -24695,12 +24704,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="70" t="s">
         <v>156</v>
       </c>
@@ -25012,16 +25021,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="58.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="58.90625" style="96" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="96" customWidth="1"/>
-    <col min="16" max="20" width="12.77734375" style="96" customWidth="1"/>
-    <col min="21" max="16384" width="12.77734375" style="96"/>
+    <col min="16" max="20" width="12.81640625" style="96" customWidth="1"/>
+    <col min="21" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
       <c r="B1" s="52"/>
       <c r="C1" s="57" t="s">
@@ -25064,7 +25073,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>322</v>
       </c>
@@ -25509,7 +25518,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="65" t="s">
         <v>188</v>
       </c>
@@ -25641,7 +25650,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
         <v>323</v>
       </c>
@@ -25823,12 +25832,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="57" t="s">
@@ -25871,7 +25880,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="52" t="s">
         <v>324</v>
       </c>
@@ -26617,7 +26626,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="52" t="s">
         <v>325</v>
       </c>
@@ -26851,12 +26860,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="57" t="s">
@@ -26899,7 +26908,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="52" t="s">
         <v>326</v>
       </c>
@@ -27645,7 +27654,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="52" t="s">
         <v>327</v>
       </c>
@@ -27897,16 +27906,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" style="96" customWidth="1"/>
-    <col min="3" max="7" width="15.5546875" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.77734375" style="96"/>
+    <col min="1" max="1" width="21.36328125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" style="96" customWidth="1"/>
+    <col min="3" max="7" width="15.54296875" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52"/>
       <c r="B1" s="70"/>
       <c r="C1" s="52" t="s">
@@ -27925,12 +27934,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
         <v>157</v>
       </c>
@@ -27950,7 +27959,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="52" t="s">
         <v>329</v>
       </c>
@@ -27961,7 +27970,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
         <v>158</v>
       </c>
@@ -27981,12 +27990,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="88" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="52"/>
       <c r="B8" s="70"/>
       <c r="C8" s="52" t="s">
@@ -28005,12 +28014,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
         <v>157</v>
       </c>
@@ -28035,7 +28044,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
         <v>332</v>
       </c>
@@ -28046,7 +28055,7 @@
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
         <v>158</v>
       </c>
@@ -28071,12 +28080,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="88" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="70"/>
       <c r="C15" s="52" t="s">
@@ -28095,12 +28104,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
         <v>157</v>
       </c>
@@ -28125,7 +28134,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>335</v>
       </c>
@@ -28136,7 +28145,7 @@
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>158</v>
       </c>
@@ -28179,21 +28188,21 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="69" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="69" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" style="69" customWidth="1"/>
     <col min="4" max="4" width="15" style="96" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="96" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="96" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="96" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="96" customWidth="1"/>
-    <col min="9" max="13" width="12.77734375" style="96" customWidth="1"/>
-    <col min="14" max="16384" width="12.77734375" style="96"/>
+    <col min="5" max="5" width="13.6328125" style="96" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="96" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="96" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="96" customWidth="1"/>
+    <col min="9" max="13" width="12.81640625" style="96" customWidth="1"/>
+    <col min="14" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
@@ -28219,7 +28228,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>193</v>
       </c>
@@ -28245,7 +28254,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="69" t="s">
         <v>339</v>
       </c>
@@ -28265,7 +28274,7 @@
         <v>0.53134328358208949</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C4" s="69" t="s">
         <v>340</v>
       </c>
@@ -28285,7 +28294,7 @@
         <v>0.38507462686567179</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>191</v>
       </c>
@@ -28311,7 +28320,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C6" s="69" t="s">
         <v>340</v>
       </c>
@@ -28331,7 +28340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
         <v>204</v>
       </c>
@@ -28354,7 +28363,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C8" s="69" t="s">
         <v>340</v>
       </c>
@@ -28374,7 +28383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>184</v>
       </c>
@@ -28400,7 +28409,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C10" s="69" t="s">
         <v>340</v>
       </c>
@@ -28420,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
         <v>204</v>
       </c>
@@ -28443,7 +28452,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="69" t="s">
         <v>340</v>
       </c>
@@ -28463,7 +28472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>192</v>
       </c>
@@ -28489,7 +28498,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="69" t="s">
         <v>340</v>
       </c>
@@ -28509,7 +28518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
         <v>204</v>
       </c>
@@ -28532,7 +28541,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="69" t="s">
         <v>340</v>
       </c>
@@ -28552,7 +28561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>169</v>
       </c>
@@ -28578,7 +28587,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C18" s="69" t="s">
         <v>340</v>
       </c>
@@ -28598,7 +28607,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>204</v>
       </c>
@@ -28621,7 +28630,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C20" s="69" t="s">
         <v>340</v>
       </c>
@@ -28641,7 +28650,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>174</v>
       </c>
@@ -28667,7 +28676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C22" s="69" t="s">
         <v>339</v>
       </c>
@@ -28687,7 +28696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>172</v>
       </c>
@@ -28713,7 +28722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="s">
         <v>339</v>
       </c>
@@ -28733,7 +28742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>173</v>
       </c>
@@ -28759,7 +28768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C26" s="69" t="s">
         <v>339</v>
       </c>
@@ -28779,7 +28788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>197</v>
       </c>
@@ -28805,7 +28814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C28" s="69" t="s">
         <v>339</v>
       </c>
@@ -28825,7 +28834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C29" s="69" t="s">
         <v>340</v>
       </c>
@@ -28845,7 +28854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>198</v>
       </c>
@@ -28871,7 +28880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C31" s="69" t="s">
         <v>339</v>
       </c>
@@ -28891,7 +28900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">
         <v>340</v>
       </c>
@@ -28911,7 +28920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>196</v>
       </c>
@@ -28937,7 +28946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C34" s="69" t="s">
         <v>339</v>
       </c>
@@ -28957,7 +28966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C35" s="69" t="s">
         <v>340</v>
       </c>
@@ -28977,7 +28986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>195</v>
       </c>
@@ -29003,7 +29012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C37" s="69" t="s">
         <v>339</v>
       </c>
@@ -29023,7 +29032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C38" s="69" t="s">
         <v>340</v>
       </c>
@@ -29043,7 +29052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>194</v>
       </c>
@@ -29069,7 +29078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C40" s="69" t="s">
         <v>339</v>
       </c>
@@ -29089,7 +29098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C41" s="69" t="s">
         <v>340</v>
       </c>
@@ -29109,7 +29118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A42" s="69" t="s">
         <v>200</v>
       </c>
@@ -29135,7 +29144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C43" s="69" t="s">
         <v>339</v>
       </c>
@@ -29155,7 +29164,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C44" s="69" t="s">
         <v>340</v>
       </c>
@@ -29175,7 +29184,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B45" s="69" t="s">
         <v>82</v>
       </c>
@@ -29198,7 +29207,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C46" s="69" t="s">
         <v>339</v>
       </c>
@@ -29218,7 +29227,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C47" s="69" t="s">
         <v>340</v>
       </c>
@@ -29238,7 +29247,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A48" s="69" t="s">
         <v>190</v>
       </c>
@@ -29264,7 +29273,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C49" s="69" t="s">
         <v>339</v>
       </c>
@@ -29284,7 +29293,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
         <v>199</v>
       </c>
@@ -29310,7 +29319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C51" s="69" t="s">
         <v>339</v>
       </c>
@@ -29330,7 +29339,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A52" s="69" t="s">
         <v>183</v>
       </c>
@@ -29356,7 +29365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C53" s="69" t="s">
         <v>339</v>
       </c>
@@ -29376,14 +29385,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="92" t="s">
         <v>330</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="52" t="s">
         <v>156</v>
       </c>
@@ -29409,7 +29418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A57" s="69" t="s">
         <v>193</v>
       </c>
@@ -29440,7 +29449,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C58" s="69" t="s">
         <v>339</v>
       </c>
@@ -29465,7 +29474,7 @@
         <v>0.47820895522388057</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C59" s="69" t="s">
         <v>340</v>
       </c>
@@ -29490,7 +29499,7 @@
         <v>0.3465671641791046</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A60" s="69" t="s">
         <v>191</v>
       </c>
@@ -29521,7 +29530,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C61" s="69" t="s">
         <v>340</v>
       </c>
@@ -29546,7 +29555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B62" s="69" t="s">
         <v>204</v>
       </c>
@@ -29574,7 +29583,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C63" s="69" t="s">
         <v>340</v>
       </c>
@@ -29599,7 +29608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A64" s="69" t="s">
         <v>184</v>
       </c>
@@ -29630,7 +29639,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C65" s="69" t="s">
         <v>340</v>
       </c>
@@ -29655,7 +29664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B66" s="69" t="s">
         <v>204</v>
       </c>
@@ -29683,7 +29692,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C67" s="69" t="s">
         <v>340</v>
       </c>
@@ -29708,7 +29717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A68" s="69" t="s">
         <v>192</v>
       </c>
@@ -29739,7 +29748,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C69" s="69" t="s">
         <v>340</v>
       </c>
@@ -29764,7 +29773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B70" s="69" t="s">
         <v>204</v>
       </c>
@@ -29792,7 +29801,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C71" s="69" t="s">
         <v>340</v>
       </c>
@@ -29817,7 +29826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A72" s="69" t="s">
         <v>169</v>
       </c>
@@ -29848,7 +29857,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C73" s="69" t="s">
         <v>340</v>
       </c>
@@ -29873,7 +29882,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B74" s="69" t="s">
         <v>204</v>
       </c>
@@ -29901,7 +29910,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C75" s="69" t="s">
         <v>340</v>
       </c>
@@ -29926,7 +29935,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A76" s="69" t="s">
         <v>174</v>
       </c>
@@ -29957,7 +29966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C77" s="69" t="s">
         <v>339</v>
       </c>
@@ -29982,7 +29991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A78" s="69" t="s">
         <v>172</v>
       </c>
@@ -30013,7 +30022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C79" s="69" t="s">
         <v>339</v>
       </c>
@@ -30038,7 +30047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A80" s="69" t="s">
         <v>173</v>
       </c>
@@ -30069,7 +30078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C81" s="69" t="s">
         <v>339</v>
       </c>
@@ -30094,7 +30103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A82" s="69" t="s">
         <v>197</v>
       </c>
@@ -30125,7 +30134,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C83" s="69" t="s">
         <v>339</v>
       </c>
@@ -30150,7 +30159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C84" s="69" t="s">
         <v>340</v>
       </c>
@@ -30175,7 +30184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A85" s="69" t="s">
         <v>198</v>
       </c>
@@ -30206,7 +30215,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C86" s="69" t="s">
         <v>339</v>
       </c>
@@ -30231,7 +30240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C87" s="69" t="s">
         <v>340</v>
       </c>
@@ -30256,7 +30265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A88" s="69" t="s">
         <v>196</v>
       </c>
@@ -30287,7 +30296,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C89" s="69" t="s">
         <v>339</v>
       </c>
@@ -30312,7 +30321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C90" s="69" t="s">
         <v>340</v>
       </c>
@@ -30337,7 +30346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A91" s="69" t="s">
         <v>195</v>
       </c>
@@ -30368,7 +30377,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C92" s="69" t="s">
         <v>339</v>
       </c>
@@ -30393,7 +30402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C93" s="69" t="s">
         <v>340</v>
       </c>
@@ -30418,7 +30427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A94" s="69" t="s">
         <v>194</v>
       </c>
@@ -30449,7 +30458,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C95" s="69" t="s">
         <v>339</v>
       </c>
@@ -30474,7 +30483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C96" s="69" t="s">
         <v>340</v>
       </c>
@@ -30499,7 +30508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A97" s="69" t="s">
         <v>200</v>
       </c>
@@ -30530,7 +30539,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C98" s="69" t="s">
         <v>339</v>
       </c>
@@ -30555,7 +30564,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C99" s="69" t="s">
         <v>340</v>
       </c>
@@ -30580,7 +30589,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B100" s="69" t="s">
         <v>82</v>
       </c>
@@ -30608,7 +30617,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C101" s="69" t="s">
         <v>339</v>
       </c>
@@ -30633,7 +30642,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C102" s="69" t="s">
         <v>340</v>
       </c>
@@ -30658,7 +30667,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A103" s="69" t="s">
         <v>190</v>
       </c>
@@ -30689,7 +30698,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C104" s="69" t="s">
         <v>339</v>
       </c>
@@ -30714,7 +30723,7 @@
         <v>0.83700000000000008</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A105" s="69" t="s">
         <v>199</v>
       </c>
@@ -30745,7 +30754,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C106" s="69" t="s">
         <v>339</v>
       </c>
@@ -30770,7 +30779,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A107" s="69" t="s">
         <v>183</v>
       </c>
@@ -30801,7 +30810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C108" s="69" t="s">
         <v>339</v>
       </c>
@@ -30826,14 +30835,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="92" t="s">
         <v>333</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="52" t="s">
         <v>156</v>
       </c>
@@ -30859,7 +30868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A112" s="69" t="s">
         <v>193</v>
       </c>
@@ -30890,7 +30899,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C113" s="69" t="s">
         <v>339</v>
       </c>
@@ -30915,7 +30924,7 @@
         <v>0.55791044776119403</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C114" s="69" t="s">
         <v>340</v>
       </c>
@@ -30940,7 +30949,7 @@
         <v>0.40432835820895541</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A115" s="69" t="s">
         <v>191</v>
       </c>
@@ -30971,7 +30980,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C116" s="69" t="s">
         <v>340</v>
       </c>
@@ -30996,7 +31005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B117" s="69" t="s">
         <v>204</v>
       </c>
@@ -31024,7 +31033,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C118" s="69" t="s">
         <v>340</v>
       </c>
@@ -31049,7 +31058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A119" s="69" t="s">
         <v>184</v>
       </c>
@@ -31080,7 +31089,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C120" s="69" t="s">
         <v>340</v>
       </c>
@@ -31105,7 +31114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B121" s="69" t="s">
         <v>204</v>
       </c>
@@ -31133,7 +31142,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C122" s="69" t="s">
         <v>340</v>
       </c>
@@ -31158,7 +31167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A123" s="69" t="s">
         <v>192</v>
       </c>
@@ -31189,7 +31198,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C124" s="69" t="s">
         <v>340</v>
       </c>
@@ -31214,7 +31223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B125" s="69" t="s">
         <v>204</v>
       </c>
@@ -31242,7 +31251,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C126" s="69" t="s">
         <v>340</v>
       </c>
@@ -31267,7 +31276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A127" s="69" t="s">
         <v>169</v>
       </c>
@@ -31298,7 +31307,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C128" s="69" t="s">
         <v>340</v>
       </c>
@@ -31323,7 +31332,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B129" s="69" t="s">
         <v>204</v>
       </c>
@@ -31351,7 +31360,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C130" s="69" t="s">
         <v>340</v>
       </c>
@@ -31376,7 +31385,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A131" s="69" t="s">
         <v>174</v>
       </c>
@@ -31407,7 +31416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C132" s="69" t="s">
         <v>339</v>
       </c>
@@ -31432,7 +31441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A133" s="69" t="s">
         <v>172</v>
       </c>
@@ -31463,7 +31472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C134" s="69" t="s">
         <v>339</v>
       </c>
@@ -31488,7 +31497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A135" s="69" t="s">
         <v>173</v>
       </c>
@@ -31519,7 +31528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C136" s="69" t="s">
         <v>339</v>
       </c>
@@ -31544,7 +31553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A137" s="69" t="s">
         <v>197</v>
       </c>
@@ -31575,7 +31584,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C138" s="69" t="s">
         <v>339</v>
       </c>
@@ -31600,7 +31609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C139" s="69" t="s">
         <v>340</v>
       </c>
@@ -31625,7 +31634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A140" s="69" t="s">
         <v>198</v>
       </c>
@@ -31656,7 +31665,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C141" s="69" t="s">
         <v>339</v>
       </c>
@@ -31681,7 +31690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C142" s="69" t="s">
         <v>340</v>
       </c>
@@ -31706,7 +31715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A143" s="69" t="s">
         <v>196</v>
       </c>
@@ -31737,7 +31746,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C144" s="69" t="s">
         <v>339</v>
       </c>
@@ -31762,7 +31771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C145" s="69" t="s">
         <v>340</v>
       </c>
@@ -31787,7 +31796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A146" s="69" t="s">
         <v>195</v>
       </c>
@@ -31818,7 +31827,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C147" s="69" t="s">
         <v>339</v>
       </c>
@@ -31843,7 +31852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C148" s="69" t="s">
         <v>340</v>
       </c>
@@ -31868,7 +31877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A149" s="69" t="s">
         <v>194</v>
       </c>
@@ -31899,7 +31908,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C150" s="69" t="s">
         <v>339</v>
       </c>
@@ -31924,7 +31933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C151" s="69" t="s">
         <v>340</v>
       </c>
@@ -31949,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A152" s="69" t="s">
         <v>200</v>
       </c>
@@ -31980,7 +31989,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C153" s="69" t="s">
         <v>339</v>
       </c>
@@ -32005,7 +32014,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C154" s="69" t="s">
         <v>340</v>
       </c>
@@ -32030,7 +32039,7 @@
         <v>0.68250000000000011</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B155" s="69" t="s">
         <v>82</v>
       </c>
@@ -32058,7 +32067,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C156" s="69" t="s">
         <v>339</v>
       </c>
@@ -32083,7 +32092,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C157" s="69" t="s">
         <v>340</v>
       </c>
@@ -32108,7 +32117,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A158" s="69" t="s">
         <v>190</v>
       </c>
@@ -32139,7 +32148,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C159" s="69" t="s">
         <v>339</v>
       </c>
@@ -32164,7 +32173,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A160" s="69" t="s">
         <v>199</v>
       </c>
@@ -32195,7 +32204,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C161" s="69" t="s">
         <v>339</v>
       </c>
@@ -32220,7 +32229,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A162" s="69" t="s">
         <v>183</v>
       </c>
@@ -32251,7 +32260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C163" s="69" t="s">
         <v>339</v>
       </c>
@@ -32294,17 +32303,17 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="96" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="96" customWidth="1"/>
-    <col min="4" max="7" width="17.21875" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.77734375" style="96"/>
+    <col min="2" max="2" width="27.453125" style="96" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="96" customWidth="1"/>
+    <col min="4" max="7" width="17.1796875" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.81640625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>156</v>
       </c>
@@ -32326,7 +32335,7 @@
       </c>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>168</v>
       </c>
@@ -32350,7 +32359,7 @@
       </c>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C3" s="96" t="s">
         <v>339</v>
       </c>
@@ -32368,7 +32377,7 @@
       </c>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>187</v>
       </c>
@@ -32392,7 +32401,7 @@
       </c>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C5" s="96" t="s">
         <v>339</v>
       </c>
@@ -32410,7 +32419,7 @@
       </c>
       <c r="H5" s="69"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
         <v>186</v>
       </c>
@@ -32434,7 +32443,7 @@
       </c>
       <c r="H6" s="69"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C7" s="96" t="s">
         <v>339</v>
       </c>
@@ -32452,12 +32461,12 @@
       </c>
       <c r="H7" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="88" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="70" t="s">
         <v>156</v>
       </c>
@@ -32478,7 +32487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
         <v>168</v>
       </c>
@@ -32505,7 +32514,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C12" s="96" t="s">
         <v>339</v>
       </c>
@@ -32526,7 +32535,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
         <v>187</v>
       </c>
@@ -32553,7 +32562,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C14" s="96" t="s">
         <v>339</v>
       </c>
@@ -32574,7 +32583,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
         <v>186</v>
       </c>
@@ -32601,7 +32610,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" s="96" t="s">
         <v>339</v>
       </c>
@@ -32622,12 +32631,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="88" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="70" t="s">
         <v>156</v>
       </c>
@@ -32648,7 +32657,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>168</v>
       </c>
@@ -32675,7 +32684,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C21" s="96" t="s">
         <v>339</v>
       </c>
@@ -32696,7 +32705,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>187</v>
       </c>
@@ -32723,7 +32732,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C23" s="96" t="s">
         <v>339</v>
       </c>
@@ -32744,7 +32753,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
         <v>186</v>
       </c>
@@ -32771,7 +32780,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C25" s="96" t="s">
         <v>339</v>
       </c>
@@ -32805,18 +32814,18 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2021) attributable to cause</v>
@@ -32827,7 +32836,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -32910,23 +32919,23 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="96" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="108" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="11"/>
@@ -33044,7 +33053,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -33124,9 +33133,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6+Fd3+lM6F7CC5nfFjMDqczCxNwVKDBM6mVepSMFM7+v73SgdhSv8TfnfC8nlMe7xcq13q6MIjDLhTIelvMcKQ==" saltValue="kqEZBqN0TYQlZLQiK64T3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CrboYc9UX5XSMoZI2d3seDbxq0FUwO6lHlv5QmdA7waCd6mIaG1DALJ+ohk1ZEupXGBqUgyfWO87Q9fa1n0GZg==" saltValue="hE5A2AlDlVLsyN6mlReVUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33141,13 +33150,13 @@
       <selection activeCell="C15" activeCellId="2" sqref="C2:G3 C8:G9 C15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2021)</v>
@@ -33498,13 +33507,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2021)</v>
@@ -33604,14 +33613,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="102" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="102" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="102"/>
+    <col min="2" max="2" width="29.453125" style="102" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
         <v>123</v>
       </c>
@@ -33646,7 +33655,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>125</v>
       </c>
@@ -33663,10 +33672,10 @@
       <c r="J2" s="104"/>
       <c r="K2" s="104"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="103"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>127</v>
       </c>
@@ -33683,10 +33692,10 @@
       <c r="J4" s="104"/>
       <c r="K4" s="104"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>128</v>
       </c>
@@ -33703,7 +33712,7 @@
       <c r="J6" s="104"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="103" t="s">
         <v>90</v>
       </c>
@@ -33717,7 +33726,7 @@
       <c r="J7" s="104"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B8" s="103" t="s">
         <v>129</v>
       </c>
@@ -33731,7 +33740,7 @@
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
         <v>130</v>
       </c>
@@ -33748,7 +33757,7 @@
       <c r="J10" s="104"/>
       <c r="K10" s="104"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="103" t="s">
         <v>132</v>
       </c>
@@ -33762,7 +33771,7 @@
       <c r="J11" s="104"/>
       <c r="K11" s="104"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
         <v>32</v>
       </c>
@@ -33779,7 +33788,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="104"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="103" t="s">
         <v>134</v>
       </c>
@@ -33811,14 +33820,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.44140625" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="102" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="102"/>
+    <col min="1" max="1" width="36.453125" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="102" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
         <v>135</v>
       </c>
@@ -33826,7 +33835,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>137</v>
       </c>
@@ -33834,7 +33843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>138</v>
       </c>
@@ -33842,7 +33851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>139</v>
       </c>
@@ -33850,7 +33859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>140</v>
       </c>
@@ -33858,7 +33867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>141</v>
       </c>
@@ -33866,7 +33875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>142</v>
       </c>
@@ -33891,16 +33900,16 @@
       <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="96" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="96" customWidth="1"/>
-    <col min="4" max="8" width="11.44140625" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="96"/>
+    <col min="2" max="2" width="19.08984375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="96" customWidth="1"/>
+    <col min="4" max="8" width="11.453125" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="11.453125" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>143</v>
       </c>
@@ -33917,7 +33926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>148</v>
       </c>
@@ -33931,7 +33940,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>67</v>
       </c>
@@ -33944,7 +33953,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>77</v>
       </c>
@@ -33957,7 +33966,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>78</v>
       </c>
@@ -33970,7 +33979,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>79</v>
       </c>
@@ -33983,7 +33992,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>149</v>
       </c>
@@ -33991,7 +34000,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="42"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>150</v>
       </c>
@@ -34005,7 +34014,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>67</v>
       </c>
@@ -34018,7 +34027,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
@@ -34031,7 +34040,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>78</v>
       </c>
@@ -34044,7 +34053,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>79</v>
       </c>
@@ -34057,7 +34066,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>149</v>
       </c>
@@ -34065,7 +34074,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>152</v>
       </c>
@@ -34079,7 +34088,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>67</v>
       </c>
@@ -34092,7 +34101,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>77</v>
       </c>
@@ -34105,7 +34114,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>78</v>
       </c>
@@ -34116,7 +34125,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>79</v>
       </c>
@@ -34127,7 +34136,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>149</v>
       </c>
@@ -34153,15 +34162,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
@@ -34175,7 +34184,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>156</v>
       </c>
@@ -34187,7 +34196,7 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>159</v>
       </c>

--- a/inputs/en/Optima_template.xlsx
+++ b/inputs/en/Optima_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee.altermatt\Documents\GitHub\Nutrition\inputs\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B95579E-34D7-4CAC-8807-D8F4CB01DFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CDB60-4687-4849-96B1-112EA339DEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="-18120" windowWidth="29040" windowHeight="17520" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1562,12 +1562,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1713,7 +1707,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1964,9 +1958,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -2337,18 +2328,18 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="65" customWidth="1"/>
-    <col min="3" max="7" width="14.453125" style="96" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="96"/>
+    <col min="1" max="1" width="27.6640625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="65" customWidth="1"/>
+    <col min="3" max="7" width="14.44140625" style="96" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
@@ -2359,14 +2350,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="69" t="s">
         <v>4</v>
@@ -2375,7 +2366,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="69" t="s">
         <v>5</v>
@@ -2384,7 +2375,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2439,7 +2430,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="96"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="96" t="s">
         <v>14</v>
       </c>
@@ -2546,7 +2537,7 @@
       </c>
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>30</v>
       </c>
@@ -2556,7 +2547,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
         <v>31</v>
       </c>
@@ -2724,7 +2715,7 @@
       </c>
       <c r="C62" s="32"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="52"/>
     </row>
   </sheetData>
@@ -2746,20 +2737,20 @@
       <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="69" customWidth="1"/>
     <col min="2" max="2" width="20" style="96" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="96" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="96" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="96" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="96" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="96" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.453125" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="14.453125" style="96"/>
+    <col min="7" max="7" width="22.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.44140625" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="14.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>156</v>
       </c>
@@ -3520,20 +3511,20 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="96"/>
+    <col min="2" max="2" width="47.88671875" style="96" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="96" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
@@ -3544,7 +3535,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>179</v>
       </c>
@@ -3553,7 +3544,7 @@
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>180</v>
       </c>
@@ -3562,7 +3553,7 @@
       </c>
       <c r="C3" s="42"/>
     </row>
-    <row r="4" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>191</v>
       </c>
@@ -3571,7 +3562,7 @@
       </c>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>188</v>
       </c>
@@ -3580,77 +3571,77 @@
       </c>
       <c r="C5" s="42"/>
     </row>
-    <row r="6" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
     </row>
-    <row r="7" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
     </row>
-    <row r="10" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45"/>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45"/>
     </row>
-    <row r="12" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="45"/>
       <c r="C12" s="45"/>
     </row>
-    <row r="13" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="45"/>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
     </row>
-    <row r="16" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="45"/>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
     </row>
-    <row r="18" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
     </row>
-    <row r="19" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
     </row>
-    <row r="20" spans="1:3" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="45"/>
       <c r="C20" s="45"/>
@@ -3674,86 +3665,86 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="96" customWidth="1"/>
-    <col min="2" max="6" width="11.453125" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="11.453125" style="96"/>
+    <col min="1" max="1" width="30.109375" style="96" customWidth="1"/>
+    <col min="2" max="6" width="11.44140625" style="96" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
     </row>
-    <row r="11" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
     </row>
-    <row r="12" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
     </row>
-    <row r="13" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
     </row>
-    <row r="14" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
     </row>
-    <row r="15" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
     </row>
-    <row r="16" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
     </row>
-    <row r="17" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
     </row>
-    <row r="18" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
     </row>
-    <row r="19" spans="1:1" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
     </row>
   </sheetData>
@@ -3773,7 +3764,7 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
@@ -3888,19 +3879,19 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>206</v>
       </c>
@@ -3947,7 +3938,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>76</v>
       </c>
@@ -4508,7 +4499,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
         <v>90</v>
       </c>
@@ -4559,7 +4550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="69" t="s">
         <v>168</v>
@@ -4604,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="69" t="s">
         <v>179</v>
@@ -4653,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
       <c r="B18" s="69" t="s">
         <v>180</v>
@@ -4889,7 +4880,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>207</v>
       </c>
@@ -5139,7 +5130,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>208</v>
       </c>
@@ -5644,7 +5635,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="96" t="s">
@@ -5682,17 +5673,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="96" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="96" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="96" customWidth="1"/>
-    <col min="6" max="10" width="11.453125" style="96" customWidth="1"/>
-    <col min="11" max="16384" width="11.453125" style="96"/>
+    <col min="1" max="1" width="33.6640625" style="96" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="96" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="96" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="96" customWidth="1"/>
+    <col min="6" max="10" width="11.44140625" style="96" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>212</v>
       </c>
@@ -5709,7 +5700,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>216</v>
       </c>
@@ -5727,7 +5718,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>217</v>
       </c>
@@ -5745,7 +5736,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -5763,7 +5754,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>219</v>
       </c>
@@ -5781,7 +5772,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>220</v>
       </c>
@@ -5799,7 +5790,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>221</v>
       </c>
@@ -5817,7 +5808,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>222</v>
       </c>
@@ -5835,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>223</v>
       </c>
@@ -5853,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>224</v>
       </c>
@@ -5889,21 +5880,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="51" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="51" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="51" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="16.08984375" style="51" customWidth="1"/>
-    <col min="21" max="16384" width="16.08984375" style="51"/>
+    <col min="6" max="7" width="13.109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="51" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="16.109375" style="51" customWidth="1"/>
+    <col min="21" max="16384" width="16.109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>206</v>
       </c>
@@ -5950,7 +5941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>76</v>
       </c>
@@ -5997,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="69" t="s">
         <v>170</v>
       </c>
@@ -6041,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="69" t="s">
         <v>148</v>
       </c>
@@ -6085,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="69" t="s">
         <v>150</v>
       </c>
@@ -6129,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="69" t="s">
         <v>152</v>
       </c>
@@ -6173,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="69" t="s">
         <v>183</v>
       </c>
@@ -6217,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="69" t="s">
         <v>184</v>
       </c>
@@ -6261,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="69" t="s">
         <v>188</v>
       </c>
@@ -6305,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="69" t="s">
         <v>190</v>
       </c>
@@ -6349,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="69" t="s">
         <v>191</v>
       </c>
@@ -6393,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="69" t="s">
         <v>192</v>
       </c>
@@ -6437,7 +6428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="69" t="s">
         <v>157</v>
       </c>
@@ -6481,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="69" t="s">
         <v>193</v>
       </c>
@@ -6525,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="69" t="s">
         <v>199</v>
       </c>
@@ -6569,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="69" t="s">
         <v>200</v>
       </c>
@@ -6613,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="69"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
@@ -6629,7 +6620,7 @@
       <c r="N17" s="79"/>
       <c r="O17" s="79"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>90</v>
       </c>
@@ -6676,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
       <c r="B19" s="69" t="s">
         <v>168</v>
@@ -6721,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="69" t="s">
         <v>179</v>
       </c>
@@ -6765,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="69" t="s">
         <v>180</v>
       </c>
@@ -6809,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="49" t="s">
         <v>181</v>
       </c>
@@ -6853,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="69" t="s">
         <v>186</v>
       </c>
@@ -6897,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="69" t="s">
         <v>187</v>
       </c>
@@ -6941,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="69" t="s">
         <v>189</v>
       </c>
@@ -6985,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="69"/>
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
@@ -7001,7 +6992,7 @@
       <c r="N26" s="79"/>
       <c r="O26" s="79"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
         <v>207</v>
       </c>
@@ -7049,7 +7040,7 @@
       </c>
       <c r="P27" s="50"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="65" t="s">
         <v>175</v>
       </c>
@@ -7093,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="65" t="s">
         <v>176</v>
@@ -7138,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="65" t="s">
         <v>177</v>
       </c>
@@ -7182,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="65" t="s">
         <v>178</v>
       </c>
@@ -7226,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="69"/>
       <c r="C32" s="80"/>
       <c r="D32" s="80"/>
@@ -7242,7 +7233,7 @@
       <c r="N32" s="79"/>
       <c r="O32" s="79"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52" t="s">
         <v>208</v>
       </c>
@@ -7289,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="69" t="s">
         <v>173</v>
       </c>
@@ -7333,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="69" t="s">
         <v>174</v>
       </c>
@@ -7377,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="69" t="s">
         <v>182</v>
       </c>
@@ -7421,7 +7412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="69" t="s">
         <v>185</v>
       </c>
@@ -7465,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="69" t="s">
         <v>194</v>
       </c>
@@ -7509,7 +7500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="69" t="s">
         <v>195</v>
       </c>
@@ -7553,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="69" t="s">
         <v>196</v>
       </c>
@@ -7597,7 +7588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="69" t="s">
         <v>197</v>
       </c>
@@ -7641,7 +7632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="69" t="s">
         <v>198</v>
       </c>
@@ -7701,23 +7692,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.81640625" style="96" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="58.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="96" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
@@ -7752,7 +7743,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>166</v>
       </c>
@@ -7769,7 +7760,7 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>168</v>
       </c>
@@ -7786,7 +7777,7 @@
       <c r="J3" s="82"/>
       <c r="K3" s="82"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="69" t="s">
         <v>169</v>
       </c>
@@ -7803,7 +7794,7 @@
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>170</v>
       </c>
@@ -7820,7 +7811,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="82"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="69" t="s">
         <v>171</v>
       </c>
@@ -7839,7 +7830,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>172</v>
       </c>
@@ -7858,7 +7849,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
         <v>173</v>
       </c>
@@ -7877,7 +7868,7 @@
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>174</v>
       </c>
@@ -7896,7 +7887,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>175</v>
       </c>
@@ -7913,7 +7904,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="65" t="s">
         <v>176</v>
       </c>
@@ -7930,7 +7921,7 @@
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
         <v>177</v>
       </c>
@@ -7947,7 +7938,7 @@
       <c r="J12" s="82"/>
       <c r="K12" s="82"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="65" t="s">
         <v>178</v>
       </c>
@@ -7964,7 +7955,7 @@
       <c r="J13" s="82"/>
       <c r="K13" s="82"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>179</v>
       </c>
@@ -7983,7 +7974,7 @@
       <c r="J14" s="82"/>
       <c r="K14" s="82"/>
     </row>
-    <row r="15" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="69" t="s">
         <v>180</v>
       </c>
@@ -8002,7 +7993,7 @@
       <c r="J15" s="82"/>
       <c r="K15" s="82"/>
     </row>
-    <row r="16" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
         <v>181</v>
       </c>
@@ -8023,7 +8014,7 @@
       <c r="J16" s="82"/>
       <c r="K16" s="82"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>182</v>
       </c>
@@ -8040,7 +8031,7 @@
       <c r="J17" s="82"/>
       <c r="K17" s="82"/>
     </row>
-    <row r="18" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="69" t="s">
         <v>148</v>
       </c>
@@ -8059,7 +8050,7 @@
       <c r="J18" s="82"/>
       <c r="K18" s="82"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>150</v>
       </c>
@@ -8078,7 +8069,7 @@
       <c r="J19" s="82"/>
       <c r="K19" s="82"/>
     </row>
-    <row r="20" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>152</v>
       </c>
@@ -8097,7 +8088,7 @@
       <c r="J20" s="82"/>
       <c r="K20" s="82"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>183</v>
       </c>
@@ -8116,7 +8107,7 @@
       <c r="J21" s="82"/>
       <c r="K21" s="82"/>
     </row>
-    <row r="22" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>184</v>
       </c>
@@ -8137,7 +8128,7 @@
       <c r="J22" s="82"/>
       <c r="K22" s="82"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>185</v>
       </c>
@@ -8156,7 +8147,7 @@
       <c r="J23" s="82"/>
       <c r="K23" s="82"/>
     </row>
-    <row r="24" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
         <v>186</v>
       </c>
@@ -8173,7 +8164,7 @@
       <c r="J24" s="82"/>
       <c r="K24" s="82"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>187</v>
       </c>
@@ -8190,7 +8181,7 @@
       <c r="J25" s="82"/>
       <c r="K25" s="82"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="69" t="s">
         <v>188</v>
       </c>
@@ -8207,7 +8198,7 @@
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
     </row>
-    <row r="27" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>189</v>
       </c>
@@ -8226,7 +8217,7 @@
       <c r="J27" s="82"/>
       <c r="K27" s="82"/>
     </row>
-    <row r="28" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="69" t="s">
         <v>190</v>
       </c>
@@ -8243,7 +8234,7 @@
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
     </row>
-    <row r="29" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
         <v>191</v>
       </c>
@@ -8262,7 +8253,7 @@
       <c r="J29" s="82"/>
       <c r="K29" s="82"/>
     </row>
-    <row r="30" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>192</v>
       </c>
@@ -8283,7 +8274,7 @@
       <c r="J30" s="82"/>
       <c r="K30" s="82"/>
     </row>
-    <row r="31" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="69" t="s">
         <v>157</v>
       </c>
@@ -8300,7 +8291,7 @@
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
     </row>
-    <row r="32" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="69" t="s">
         <v>193</v>
       </c>
@@ -8319,7 +8310,7 @@
       <c r="J32" s="82"/>
       <c r="K32" s="82"/>
     </row>
-    <row r="33" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>194</v>
       </c>
@@ -8338,7 +8329,7 @@
       <c r="J33" s="82"/>
       <c r="K33" s="82"/>
     </row>
-    <row r="34" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
         <v>195</v>
       </c>
@@ -8357,7 +8348,7 @@
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
     </row>
-    <row r="35" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="69" t="s">
         <v>196</v>
       </c>
@@ -8376,7 +8367,7 @@
       <c r="J35" s="82"/>
       <c r="K35" s="82"/>
     </row>
-    <row r="36" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>197</v>
       </c>
@@ -8395,7 +8386,7 @@
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
     </row>
-    <row r="37" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="69" t="s">
         <v>198</v>
       </c>
@@ -8414,7 +8405,7 @@
       <c r="J37" s="82"/>
       <c r="K37" s="82"/>
     </row>
-    <row r="38" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
         <v>199</v>
       </c>
@@ -8431,7 +8422,7 @@
       <c r="J38" s="82"/>
       <c r="K38" s="82"/>
     </row>
-    <row r="39" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>200</v>
       </c>
@@ -8469,23 +8460,23 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="96" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="96" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="96" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="12.81640625" style="96" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="16.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="96" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="12.77734375" style="96" customWidth="1"/>
+    <col min="16" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>230</v>
       </c>
@@ -8520,7 +8511,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>67</v>
       </c>
@@ -8549,7 +8540,7 @@
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="96" t="s">
         <v>77</v>
       </c>
@@ -8578,7 +8569,7 @@
       <c r="J3" s="82"/>
       <c r="K3" s="82"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
         <v>78</v>
       </c>
@@ -8607,7 +8598,7 @@
       <c r="J4" s="82"/>
       <c r="K4" s="82"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
         <v>79</v>
       </c>
@@ -8636,7 +8627,7 @@
       <c r="J5" s="82"/>
       <c r="K5" s="82"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="96" t="s">
         <v>80</v>
       </c>
@@ -8665,7 +8656,7 @@
       <c r="J6" s="82"/>
       <c r="K6" s="82"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="96" t="s">
         <v>112</v>
       </c>
@@ -8686,7 +8677,7 @@
       <c r="J7" s="82"/>
       <c r="K7" s="82"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="96" t="s">
         <v>113</v>
       </c>
@@ -8707,7 +8698,7 @@
       <c r="J8" s="82"/>
       <c r="K8" s="82"/>
     </row>
-    <row r="9" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="96" t="s">
         <v>114</v>
       </c>
@@ -8728,7 +8719,7 @@
       <c r="J9" s="82"/>
       <c r="K9" s="82"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="96" t="s">
         <v>115</v>
       </c>
@@ -8749,7 +8740,7 @@
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="96" t="s">
         <v>58</v>
       </c>
@@ -8770,7 +8761,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="96" t="s">
         <v>59</v>
       </c>
@@ -8789,7 +8780,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>60</v>
       </c>
@@ -8808,7 +8799,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="96" t="s">
         <v>61</v>
       </c>
@@ -8844,15 +8835,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="96" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="96" customWidth="1"/>
-    <col min="10" max="14" width="14.453125" style="96" customWidth="1"/>
-    <col min="15" max="16384" width="14.453125" style="96"/>
+    <col min="1" max="1" width="8.44140625" style="96" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="96" customWidth="1"/>
+    <col min="10" max="14" width="14.44140625" style="96" customWidth="1"/>
+    <col min="15" max="16384" width="14.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>56</v>
       </c>
@@ -9840,16 +9831,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="96" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="96" customWidth="1"/>
     <col min="2" max="2" width="15" style="96" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="12.81640625" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="96"/>
+    <col min="3" max="3" width="14.6640625" style="96" customWidth="1"/>
+    <col min="4" max="8" width="12.77734375" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>231</v>
       </c>
@@ -9875,7 +9866,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>232</v>
       </c>
@@ -9901,7 +9892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="107"/>
       <c r="C3" s="96" t="s">
         <v>146</v>
@@ -9923,7 +9914,7 @@
       </c>
       <c r="J3" s="53"/>
     </row>
-    <row r="4" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="107"/>
       <c r="C4" s="96" t="s">
         <v>147</v>
@@ -9945,7 +9936,7 @@
       </c>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="106" t="s">
         <v>67</v>
       </c>
@@ -9969,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="107"/>
       <c r="C6" s="96" t="s">
         <v>146</v>
@@ -9990,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="107"/>
       <c r="C7" s="96" t="s">
         <v>147</v>
@@ -10011,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="106" t="s">
         <v>77</v>
       </c>
@@ -10034,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="107"/>
       <c r="C9" s="96" t="s">
         <v>146</v>
@@ -10055,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="107"/>
       <c r="C10" s="96" t="s">
         <v>147</v>
@@ -10076,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="106" t="s">
         <v>78</v>
       </c>
@@ -10099,7 +10090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="107"/>
       <c r="C12" s="96" t="s">
         <v>146</v>
@@ -10120,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="107"/>
       <c r="C13" s="96" t="s">
         <v>147</v>
@@ -10141,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="106" t="s">
         <v>79</v>
       </c>
@@ -10164,7 +10155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="107"/>
       <c r="C15" s="96" t="s">
         <v>146</v>
@@ -10185,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="107"/>
       <c r="C16" s="96" t="s">
         <v>147</v>
@@ -10206,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="95" t="s">
         <v>149</v>
       </c>
@@ -10229,14 +10220,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="81"/>
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="81"/>
       <c r="H18" s="81"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
         <v>233</v>
       </c>
@@ -10262,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="107"/>
       <c r="C20" s="96" t="s">
         <v>146</v>
@@ -10283,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="107"/>
       <c r="C21" s="96" t="s">
         <v>147</v>
@@ -10304,7 +10295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="106" t="s">
         <v>67</v>
       </c>
@@ -10327,7 +10318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="107"/>
       <c r="C23" s="96" t="s">
         <v>146</v>
@@ -10348,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="107"/>
       <c r="C24" s="96" t="s">
         <v>147</v>
@@ -10369,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="106" t="s">
         <v>77</v>
       </c>
@@ -10392,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="107"/>
       <c r="C26" s="96" t="s">
         <v>146</v>
@@ -10413,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="107"/>
       <c r="C27" s="96" t="s">
         <v>147</v>
@@ -10434,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="106" t="s">
         <v>78</v>
       </c>
@@ -10457,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="107"/>
       <c r="C29" s="96" t="s">
         <v>146</v>
@@ -10478,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="107"/>
       <c r="C30" s="96" t="s">
         <v>147</v>
@@ -10499,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="106" t="s">
         <v>79</v>
       </c>
@@ -10522,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="107"/>
       <c r="C32" s="96" t="s">
         <v>146</v>
@@ -10543,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="107"/>
       <c r="C33" s="96" t="s">
         <v>147</v>
@@ -10564,7 +10555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="95" t="s">
         <v>149</v>
       </c>
@@ -10587,14 +10578,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="F35" s="81"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
         <v>234</v>
       </c>
@@ -10620,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="107"/>
       <c r="C37" s="96" t="s">
         <v>146</v>
@@ -10641,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="107"/>
       <c r="C38" s="96" t="s">
         <v>147</v>
@@ -10662,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="106" t="s">
         <v>67</v>
       </c>
@@ -10685,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="107"/>
       <c r="C40" s="96" t="s">
         <v>146</v>
@@ -10706,7 +10697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="107"/>
       <c r="C41" s="96" t="s">
         <v>147</v>
@@ -10727,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="106" t="s">
         <v>77</v>
       </c>
@@ -10750,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="107"/>
       <c r="C43" s="96" t="s">
         <v>146</v>
@@ -10771,7 +10762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="107"/>
       <c r="C44" s="96" t="s">
         <v>147</v>
@@ -10792,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="106" t="s">
         <v>78</v>
       </c>
@@ -10815,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="107"/>
       <c r="C46" s="96" t="s">
         <v>146</v>
@@ -10836,7 +10827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="107"/>
       <c r="C47" s="96" t="s">
         <v>147</v>
@@ -10857,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="106" t="s">
         <v>79</v>
       </c>
@@ -10880,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="107"/>
       <c r="C49" s="96" t="s">
         <v>146</v>
@@ -10901,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="107"/>
       <c r="C50" s="96" t="s">
         <v>147</v>
@@ -10922,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="95" t="s">
         <v>149</v>
       </c>
@@ -10945,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="88" t="s">
         <v>235</v>
       </c>
@@ -10957,7 +10948,7 @@
       <c r="G53" s="88"/>
       <c r="H53" s="88"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
         <v>231</v>
       </c>
@@ -10983,7 +10974,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>236</v>
       </c>
@@ -11014,7 +11005,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" s="107"/>
       <c r="C56" s="96" t="s">
         <v>146</v>
@@ -11040,7 +11031,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="107"/>
       <c r="C57" s="96" t="s">
         <v>147</v>
@@ -11066,7 +11057,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="106" t="s">
         <v>67</v>
       </c>
@@ -11094,7 +11085,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="107"/>
       <c r="C59" s="96" t="s">
         <v>146</v>
@@ -11120,7 +11111,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="107"/>
       <c r="C60" s="96" t="s">
         <v>147</v>
@@ -11146,7 +11137,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="106" t="s">
         <v>77</v>
       </c>
@@ -11174,7 +11165,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="107"/>
       <c r="C62" s="96" t="s">
         <v>146</v>
@@ -11200,7 +11191,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" s="107"/>
       <c r="C63" s="96" t="s">
         <v>147</v>
@@ -11226,7 +11217,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" s="106" t="s">
         <v>78</v>
       </c>
@@ -11254,7 +11245,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="107"/>
       <c r="C65" s="96" t="s">
         <v>146</v>
@@ -11280,7 +11271,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="107"/>
       <c r="C66" s="96" t="s">
         <v>147</v>
@@ -11306,7 +11297,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="106" t="s">
         <v>79</v>
       </c>
@@ -11334,7 +11325,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="107"/>
       <c r="C68" s="96" t="s">
         <v>146</v>
@@ -11360,7 +11351,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69" s="107"/>
       <c r="C69" s="96" t="s">
         <v>147</v>
@@ -11386,7 +11377,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="95" t="s">
         <v>149</v>
       </c>
@@ -11414,14 +11405,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D71" s="81"/>
       <c r="E71" s="81"/>
       <c r="F71" s="81"/>
       <c r="G71" s="81"/>
       <c r="H71" s="81"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>237</v>
       </c>
@@ -11452,7 +11443,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="107"/>
       <c r="C73" s="96" t="s">
         <v>146</v>
@@ -11478,7 +11469,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="107"/>
       <c r="C74" s="96" t="s">
         <v>147</v>
@@ -11504,7 +11495,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="106" t="s">
         <v>67</v>
       </c>
@@ -11532,7 +11523,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="107"/>
       <c r="C76" s="96" t="s">
         <v>146</v>
@@ -11558,7 +11549,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="107"/>
       <c r="C77" s="96" t="s">
         <v>147</v>
@@ -11584,7 +11575,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="106" t="s">
         <v>77</v>
       </c>
@@ -11612,7 +11603,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="107"/>
       <c r="C79" s="96" t="s">
         <v>146</v>
@@ -11638,7 +11629,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="107"/>
       <c r="C80" s="96" t="s">
         <v>147</v>
@@ -11664,7 +11655,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81" s="106" t="s">
         <v>78</v>
       </c>
@@ -11692,7 +11683,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82" s="107"/>
       <c r="C82" s="96" t="s">
         <v>146</v>
@@ -11718,7 +11709,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B83" s="107"/>
       <c r="C83" s="96" t="s">
         <v>147</v>
@@ -11744,7 +11735,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="106" t="s">
         <v>79</v>
       </c>
@@ -11772,7 +11763,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="107"/>
       <c r="C85" s="96" t="s">
         <v>146</v>
@@ -11798,7 +11789,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B86" s="107"/>
       <c r="C86" s="96" t="s">
         <v>147</v>
@@ -11824,7 +11815,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="95" t="s">
         <v>149</v>
       </c>
@@ -11852,14 +11843,14 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D88" s="81"/>
       <c r="E88" s="81"/>
       <c r="F88" s="81"/>
       <c r="G88" s="81"/>
       <c r="H88" s="81"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
         <v>238</v>
       </c>
@@ -11890,7 +11881,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B90" s="107"/>
       <c r="C90" s="96" t="s">
         <v>146</v>
@@ -11916,7 +11907,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B91" s="107"/>
       <c r="C91" s="96" t="s">
         <v>147</v>
@@ -11942,7 +11933,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B92" s="106" t="s">
         <v>67</v>
       </c>
@@ -11970,7 +11961,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B93" s="107"/>
       <c r="C93" s="96" t="s">
         <v>146</v>
@@ -11996,7 +11987,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B94" s="107"/>
       <c r="C94" s="96" t="s">
         <v>147</v>
@@ -12022,7 +12013,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B95" s="106" t="s">
         <v>77</v>
       </c>
@@ -12050,7 +12041,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B96" s="107"/>
       <c r="C96" s="96" t="s">
         <v>146</v>
@@ -12076,7 +12067,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="107"/>
       <c r="C97" s="96" t="s">
         <v>147</v>
@@ -12102,7 +12093,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98" s="106" t="s">
         <v>78</v>
       </c>
@@ -12130,7 +12121,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B99" s="107"/>
       <c r="C99" s="96" t="s">
         <v>146</v>
@@ -12156,7 +12147,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="107"/>
       <c r="C100" s="96" t="s">
         <v>147</v>
@@ -12182,7 +12173,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" s="106" t="s">
         <v>79</v>
       </c>
@@ -12210,7 +12201,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B102" s="107"/>
       <c r="C102" s="96" t="s">
         <v>146</v>
@@ -12236,7 +12227,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B103" s="107"/>
       <c r="C103" s="96" t="s">
         <v>147</v>
@@ -12262,7 +12253,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="95" t="s">
         <v>149</v>
       </c>
@@ -12290,7 +12281,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="88" t="s">
         <v>239</v>
       </c>
@@ -12302,7 +12293,7 @@
       <c r="G106" s="88"/>
       <c r="H106" s="88"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="52" t="s">
         <v>231</v>
       </c>
@@ -12328,7 +12319,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="52" t="s">
         <v>240</v>
       </c>
@@ -12731,7 +12722,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="95" t="s">
         <v>149</v>
       </c>
@@ -12766,7 +12757,7 @@
       <c r="G124" s="81"/>
       <c r="H124" s="81"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="52" t="s">
         <v>241</v>
       </c>
@@ -13169,7 +13160,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="95" t="s">
         <v>149</v>
       </c>
@@ -13204,7 +13195,7 @@
       <c r="G141" s="81"/>
       <c r="H141" s="81"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="54" t="s">
         <v>242</v>
       </c>
@@ -13607,7 +13598,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="95" t="s">
         <v>149</v>
       </c>
@@ -13700,23 +13691,23 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="96" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="96" customWidth="1"/>
     <col min="5" max="6" width="15" style="96" customWidth="1"/>
-    <col min="7" max="11" width="16.08984375" style="96" customWidth="1"/>
-    <col min="12" max="16384" width="16.08984375" style="96"/>
+    <col min="7" max="11" width="16.109375" style="96" customWidth="1"/>
+    <col min="12" max="16384" width="16.109375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="74"/>
       <c r="C2" s="56" t="s">
         <v>43</v>
@@ -13731,7 +13722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
         <v>244</v>
       </c>
@@ -13815,7 +13806,7 @@
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>245</v>
       </c>
@@ -13838,7 +13829,7 @@
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="64" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>246</v>
       </c>
@@ -13847,7 +13838,7 @@
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52" t="s">
         <v>247</v>
       </c>
@@ -13907,7 +13898,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="65"/>
       <c r="C16" s="66"/>
@@ -13915,7 +13906,7 @@
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>249</v>
       </c>
@@ -14064,7 +14055,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="65"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="88" t="s">
         <v>235</v>
       </c>
@@ -14074,12 +14065,12 @@
       <c r="E27" s="91"/>
       <c r="F27" s="91"/>
     </row>
-    <row r="28" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="74"/>
       <c r="C29" s="56" t="s">
         <v>43</v>
@@ -14094,7 +14085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="52" t="s">
         <v>250</v>
       </c>
@@ -14194,7 +14185,7 @@
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
         <v>251</v>
       </c>
@@ -14215,7 +14206,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>246</v>
       </c>
@@ -14225,7 +14216,7 @@
       <c r="E38" s="63"/>
       <c r="F38" s="63"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
         <v>252</v>
       </c>
@@ -14297,7 +14288,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="52"/>
       <c r="B43" s="65"/>
       <c r="C43" s="66"/>
@@ -14305,7 +14296,7 @@
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
         <v>256</v>
       </c>
@@ -14483,7 +14474,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="88" t="s">
         <v>239</v>
       </c>
@@ -14493,12 +14484,12 @@
       <c r="E54" s="91"/>
       <c r="F54" s="91"/>
     </row>
-    <row r="55" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="64" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="74"/>
       <c r="C56" s="56" t="s">
         <v>43</v>
@@ -14513,7 +14504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>257</v>
       </c>
@@ -14613,7 +14604,7 @@
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
         <v>258</v>
       </c>
@@ -14634,7 +14625,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>246</v>
       </c>
@@ -14644,7 +14635,7 @@
       <c r="E65" s="63"/>
       <c r="F65" s="63"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
         <v>259</v>
       </c>
@@ -14716,7 +14707,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="52"/>
       <c r="B70" s="65"/>
       <c r="C70" s="66"/>
@@ -14724,7 +14715,7 @@
       <c r="E70" s="53"/>
       <c r="F70" s="53"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>263</v>
       </c>
@@ -14920,24 +14911,24 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="96" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="96" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="96" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="96" bestFit="1" customWidth="1"/>
-    <col min="17" max="21" width="12.81640625" style="96" customWidth="1"/>
-    <col min="22" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="27.21875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="96" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="96" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="96" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="96" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="96" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="12.77734375" style="96" customWidth="1"/>
+    <col min="22" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>225</v>
       </c>
@@ -14971,7 +14962,7 @@
       <c r="O2" s="71"/>
       <c r="P2" s="71"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
       <c r="B3" s="96" t="s">
         <v>81</v>
@@ -15404,7 +15395,7 @@
       <c r="O17" s="72"/>
       <c r="P17" s="72"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="78" t="s">
         <v>270</v>
       </c>
@@ -15662,12 +15653,12 @@
       <c r="O26" s="72"/>
       <c r="P26" s="72"/>
     </row>
-    <row r="28" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="72" t="s">
         <v>272</v>
       </c>
@@ -15701,7 +15692,7 @@
       <c r="O29" s="71"/>
       <c r="P29" s="71"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="52"/>
       <c r="B30" s="96" t="s">
         <v>81</v>
@@ -16396,12 +16387,12 @@
       <c r="C54" s="78"/>
       <c r="D54" s="78"/>
     </row>
-    <row r="55" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="72" t="s">
         <v>111</v>
       </c>
@@ -16429,7 +16420,7 @@
       <c r="O56" s="71"/>
       <c r="P56" s="71"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="52"/>
       <c r="B57" s="96" t="s">
         <v>91</v>
@@ -16575,12 +16566,12 @@
       <c r="C63" s="78"/>
       <c r="D63" s="78"/>
     </row>
-    <row r="64" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="72" t="s">
         <v>118</v>
       </c>
@@ -16614,7 +16605,7 @@
       <c r="O65" s="71"/>
       <c r="P65" s="71"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="76"/>
       <c r="B66" s="96" t="s">
         <v>68</v>
@@ -17650,12 +17641,12 @@
       <c r="O101" s="72"/>
       <c r="P101" s="72"/>
     </row>
-    <row r="103" spans="1:16" s="64" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="72" t="s">
         <v>81</v>
       </c>
@@ -17689,7 +17680,7 @@
       <c r="O104" s="71"/>
       <c r="P104" s="71"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="52"/>
       <c r="C105" s="78" t="s">
         <v>119</v>
@@ -17802,13 +17793,13 @@
       <c r="O108" s="72"/>
       <c r="P108" s="72"/>
     </row>
-    <row r="110" spans="1:16" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="88" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="88"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="55" t="s">
         <v>264</v>
       </c>
@@ -17820,7 +17811,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="72" t="s">
         <v>225</v>
       </c>
@@ -17846,7 +17837,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="52"/>
       <c r="B113" s="96" t="s">
         <v>81</v>
@@ -18465,7 +18456,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="55" t="s">
         <v>271</v>
       </c>
@@ -18477,7 +18468,7 @@
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="72" t="s">
         <v>272</v>
       </c>
@@ -18503,7 +18494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="52"/>
       <c r="B140" s="96" t="s">
         <v>81</v>
@@ -19126,7 +19117,7 @@
       <c r="C164" s="78"/>
       <c r="D164" s="78"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="55" t="s">
         <v>274</v>
       </c>
@@ -19138,7 +19129,7 @@
       <c r="G165" s="64"/>
       <c r="H165" s="64"/>
     </row>
-    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="72" t="s">
         <v>111</v>
       </c>
@@ -19162,7 +19153,7 @@
       </c>
       <c r="H166" s="71"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="52"/>
       <c r="B167" s="96" t="s">
         <v>91</v>
@@ -19308,7 +19299,7 @@
       <c r="C173" s="78"/>
       <c r="D173" s="78"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="55" t="s">
         <v>278</v>
       </c>
@@ -19320,7 +19311,7 @@
       <c r="G174" s="64"/>
       <c r="H174" s="64"/>
     </row>
-    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="72" t="s">
         <v>118</v>
       </c>
@@ -19346,7 +19337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="76"/>
       <c r="B176" s="96" t="s">
         <v>68</v>
@@ -20238,7 +20229,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="55" t="s">
         <v>280</v>
       </c>
@@ -20250,7 +20241,7 @@
       <c r="G213" s="64"/>
       <c r="H213" s="64"/>
     </row>
-    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="72" t="s">
         <v>81</v>
       </c>
@@ -20276,7 +20267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="52"/>
       <c r="C215" s="78" t="s">
         <v>119</v>
@@ -20373,13 +20364,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="88" t="s">
         <v>239</v>
       </c>
       <c r="H220" s="88"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="55" t="s">
         <v>264</v>
       </c>
@@ -20392,7 +20383,7 @@
       <c r="H221" s="64"/>
       <c r="I221" s="64"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="72" t="s">
         <v>225</v>
       </c>
@@ -20419,7 +20410,7 @@
       </c>
       <c r="I222" s="71"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="52"/>
       <c r="B223" s="96" t="s">
         <v>81</v>
@@ -21062,7 +21053,7 @@
       </c>
       <c r="I246" s="72"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="55" t="s">
         <v>271</v>
       </c>
@@ -21075,7 +21066,7 @@
       <c r="H248" s="64"/>
       <c r="I248" s="64"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="72" t="s">
         <v>272</v>
       </c>
@@ -21102,7 +21093,7 @@
       </c>
       <c r="I249" s="71"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="52"/>
       <c r="B250" s="96" t="s">
         <v>81</v>
@@ -21749,7 +21740,7 @@
       <c r="C274" s="78"/>
       <c r="D274" s="78"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="55" t="s">
         <v>274</v>
       </c>
@@ -21762,7 +21753,7 @@
       <c r="H275" s="64"/>
       <c r="I275" s="64"/>
     </row>
-    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="72" t="s">
         <v>111</v>
       </c>
@@ -21786,7 +21777,7 @@
       </c>
       <c r="H276" s="71"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="52"/>
       <c r="B277" s="96" t="s">
         <v>91</v>
@@ -21932,7 +21923,7 @@
       <c r="C283" s="78"/>
       <c r="D283" s="78"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="55" t="s">
         <v>278</v>
       </c>
@@ -21945,7 +21936,7 @@
       <c r="H284" s="64"/>
       <c r="I284" s="64"/>
     </row>
-    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="72" t="s">
         <v>118</v>
       </c>
@@ -21972,7 +21963,7 @@
       </c>
       <c r="I285" s="71"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="76"/>
       <c r="B286" s="96" t="s">
         <v>68</v>
@@ -22900,7 +22891,7 @@
       </c>
       <c r="I321" s="72"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="55" t="s">
         <v>280</v>
       </c>
@@ -22913,7 +22904,7 @@
       <c r="H323" s="64"/>
       <c r="I323" s="64"/>
     </row>
-    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="72" t="s">
         <v>81</v>
       </c>
@@ -22940,7 +22931,7 @@
       </c>
       <c r="I324" s="71"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="52"/>
       <c r="C325" s="78" t="s">
         <v>119</v>
@@ -23059,25 +23050,25 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="96" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="96" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="96" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="96" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="96" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="96" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="96" customWidth="1"/>
     <col min="6" max="6" width="15" style="96" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="96"/>
+    <col min="7" max="7" width="13.6640625" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>203</v>
       </c>
@@ -23118,7 +23109,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52"/>
       <c r="B4" s="69" t="s">
         <v>284</v>
@@ -23139,7 +23130,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>285</v>
       </c>
@@ -23232,12 +23223,12 @@
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
     </row>
-    <row r="11" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="65" t="s">
         <v>183</v>
@@ -23258,16 +23249,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="65"/>
     </row>
-    <row r="14" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
         <v>272</v>
       </c>
@@ -23290,7 +23281,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="69" t="s">
         <v>289</v>
@@ -23311,7 +23302,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
         <v>111</v>
       </c>
@@ -23335,12 +23326,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="55" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="52" t="s">
         <v>58</v>
       </c>
@@ -23371,12 +23362,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
         <v>281</v>
       </c>
@@ -23387,7 +23378,7 @@
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
         <v>203</v>
       </c>
@@ -23432,7 +23423,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="52"/>
       <c r="B27" s="69" t="s">
         <v>293</v>
@@ -23458,7 +23449,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>294</v>
       </c>
@@ -23571,7 +23562,7 @@
       <c r="F33" s="69"/>
       <c r="G33" s="69"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
         <v>299</v>
       </c>
@@ -23582,7 +23573,7 @@
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="65" t="s">
         <v>300</v>
@@ -23605,11 +23596,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="58"/>
       <c r="B36" s="65"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
         <v>287</v>
       </c>
@@ -23620,7 +23611,7 @@
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
         <v>272</v>
       </c>
@@ -23648,7 +23639,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="52"/>
       <c r="B39" s="69" t="s">
         <v>302</v>
@@ -23674,7 +23665,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="76" t="s">
         <v>111</v>
       </c>
@@ -23702,7 +23693,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="55" t="s">
         <v>304</v>
       </c>
@@ -23713,7 +23704,7 @@
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="52" t="s">
@@ -23751,12 +23742,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="55" t="s">
         <v>281</v>
       </c>
@@ -23767,7 +23758,7 @@
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
         <v>203</v>
       </c>
@@ -23812,7 +23803,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
       <c r="B50" s="69" t="s">
         <v>307</v>
@@ -23838,7 +23829,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>308</v>
       </c>
@@ -23951,7 +23942,7 @@
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>313</v>
       </c>
@@ -23962,7 +23953,7 @@
       <c r="F57" s="64"/>
       <c r="G57" s="64"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
       <c r="B58" s="65" t="s">
         <v>314</v>
@@ -23985,11 +23976,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="65"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
         <v>287</v>
       </c>
@@ -24000,7 +23991,7 @@
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="76" t="s">
         <v>272</v>
       </c>
@@ -24028,7 +24019,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="52"/>
       <c r="B62" s="69" t="s">
         <v>316</v>
@@ -24054,7 +24045,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="76" t="s">
         <v>111</v>
       </c>
@@ -24082,7 +24073,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>318</v>
       </c>
@@ -24093,7 +24084,7 @@
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="52" t="s">
@@ -24150,16 +24141,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="96" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="96" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="96" customWidth="1"/>
-    <col min="8" max="13" width="16.08984375" style="96" customWidth="1"/>
-    <col min="14" max="16384" width="16.08984375" style="96"/>
+    <col min="1" max="1" width="52.21875" style="96" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="96" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="96" customWidth="1"/>
+    <col min="8" max="13" width="16.109375" style="96" customWidth="1"/>
+    <col min="14" max="16384" width="16.109375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>156</v>
       </c>
@@ -24405,12 +24396,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>156</v>
       </c>
@@ -24704,12 +24695,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70" t="s">
         <v>156</v>
       </c>
@@ -25021,16 +25012,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="96" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="96" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="96" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="96" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="96" customWidth="1"/>
-    <col min="16" max="20" width="12.81640625" style="96" customWidth="1"/>
-    <col min="21" max="16384" width="12.81640625" style="96"/>
+    <col min="16" max="20" width="12.77734375" style="96" customWidth="1"/>
+    <col min="21" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
       <c r="B1" s="52"/>
       <c r="C1" s="57" t="s">
@@ -25073,7 +25064,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>322</v>
       </c>
@@ -25518,7 +25509,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="65" t="s">
         <v>188</v>
       </c>
@@ -25650,7 +25641,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>323</v>
       </c>
@@ -25832,12 +25823,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="88" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="57" t="s">
@@ -25880,7 +25871,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
         <v>324</v>
       </c>
@@ -26626,7 +26617,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
         <v>325</v>
       </c>
@@ -26860,12 +26851,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="57" t="s">
@@ -26908,7 +26899,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
         <v>326</v>
       </c>
@@ -27654,7 +27645,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
         <v>327</v>
       </c>
@@ -27906,16 +27897,16 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="96" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="96" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="96"/>
+    <col min="1" max="1" width="21.33203125" style="96" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="96" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
       <c r="B1" s="70"/>
       <c r="C1" s="52" t="s">
@@ -27934,12 +27925,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
         <v>157</v>
       </c>
@@ -27959,7 +27950,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
         <v>329</v>
       </c>
@@ -27970,7 +27961,7 @@
       <c r="F4" s="77"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
         <v>158</v>
       </c>
@@ -27990,12 +27981,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="88" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="70"/>
       <c r="C8" s="52" t="s">
@@ -28014,12 +28005,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="65" t="s">
         <v>157</v>
       </c>
@@ -28044,7 +28035,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
         <v>332</v>
       </c>
@@ -28055,7 +28046,7 @@
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
     </row>
-    <row r="12" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
         <v>158</v>
       </c>
@@ -28080,12 +28071,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="88" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="70"/>
       <c r="C15" s="52" t="s">
@@ -28104,12 +28095,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17" s="65" t="s">
         <v>157</v>
       </c>
@@ -28134,7 +28125,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="52" t="s">
         <v>335</v>
       </c>
@@ -28145,7 +28136,7 @@
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>158</v>
       </c>
@@ -28184,25 +28175,25 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="69" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="69" customWidth="1"/>
     <col min="4" max="4" width="15" style="96" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="96" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="96" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="96" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" style="96" customWidth="1"/>
-    <col min="9" max="13" width="12.81640625" style="96" customWidth="1"/>
-    <col min="14" max="16384" width="12.81640625" style="96"/>
+    <col min="5" max="5" width="13.6640625" style="96" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="96" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="96" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="96" customWidth="1"/>
+    <col min="9" max="13" width="12.77734375" style="96" customWidth="1"/>
+    <col min="14" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
         <v>156</v>
       </c>
@@ -28228,7 +28219,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>193</v>
       </c>
@@ -28245,16 +28236,16 @@
         <v>0</v>
       </c>
       <c r="F2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="85">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.39473684210526322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="69" t="s">
         <v>339</v>
       </c>
@@ -28265,16 +28256,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="85">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="85">
-        <v>0.53134328358208949</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.30769230769230765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="69" t="s">
         <v>340</v>
       </c>
@@ -28285,16 +28276,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="G4" s="85">
-        <v>0.38507462686567179</v>
+        <v>0.38507462686567184</v>
       </c>
       <c r="H4" s="85">
-        <v>0.38507462686567179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.38507462686567184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="69" t="s">
         <v>191</v>
       </c>
@@ -28320,7 +28311,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="69" t="s">
         <v>340</v>
       </c>
@@ -28331,16 +28322,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G6" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H6" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
         <v>204</v>
       </c>
@@ -28363,7 +28354,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="69" t="s">
         <v>340</v>
       </c>
@@ -28374,16 +28365,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G8" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H8" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="69" t="s">
         <v>184</v>
       </c>
@@ -28409,7 +28400,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="69" t="s">
         <v>340</v>
       </c>
@@ -28420,16 +28411,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G10" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H10" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
         <v>204</v>
       </c>
@@ -28452,7 +28443,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="69" t="s">
         <v>340</v>
       </c>
@@ -28463,16 +28454,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G12" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H12" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="69" t="s">
         <v>192</v>
       </c>
@@ -28498,7 +28489,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="69" t="s">
         <v>340</v>
       </c>
@@ -28509,16 +28500,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G14" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H14" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
         <v>204</v>
       </c>
@@ -28541,7 +28532,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="69" t="s">
         <v>340</v>
       </c>
@@ -28552,16 +28543,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="G16" s="85">
-        <v>0.25970149253731339</v>
+        <v>0.25970149253731345</v>
       </c>
       <c r="H16" s="85">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
         <v>169</v>
       </c>
@@ -28587,7 +28578,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C18" s="69" t="s">
         <v>340</v>
       </c>
@@ -28598,7 +28589,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="85">
         <v>0.62</v>
@@ -28607,7 +28598,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
         <v>204</v>
       </c>
@@ -28630,7 +28621,7 @@
         <v>0.33500000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="69" t="s">
         <v>340</v>
       </c>
@@ -28641,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="85">
         <v>0.62</v>
@@ -28650,7 +28641,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>174</v>
       </c>
@@ -28661,13 +28652,13 @@
         <v>338</v>
       </c>
       <c r="D21" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="85">
         <v>0</v>
       </c>
       <c r="F21" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="85">
         <v>0</v>
@@ -28676,7 +28667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="69" t="s">
         <v>339</v>
       </c>
@@ -28687,7 +28678,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="85">
         <v>0</v>
@@ -28696,7 +28687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>172</v>
       </c>
@@ -28707,13 +28698,13 @@
         <v>338</v>
       </c>
       <c r="D23" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="85">
         <v>0</v>
       </c>
       <c r="F23" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="85">
         <v>0</v>
@@ -28722,7 +28713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" s="69" t="s">
         <v>339</v>
       </c>
@@ -28733,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="85">
         <v>0</v>
@@ -28742,7 +28733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="69" t="s">
         <v>173</v>
       </c>
@@ -28753,13 +28744,13 @@
         <v>338</v>
       </c>
       <c r="D25" s="85">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="85">
         <v>0</v>
       </c>
       <c r="F25" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="85">
         <v>0</v>
@@ -28768,7 +28759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="69" t="s">
         <v>339</v>
       </c>
@@ -28779,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="85">
         <v>0</v>
@@ -28788,7 +28779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="69" t="s">
         <v>197</v>
       </c>
@@ -28805,7 +28796,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="85">
         <v>1</v>
@@ -28814,7 +28805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="69" t="s">
         <v>339</v>
       </c>
@@ -28825,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="85">
         <v>0</v>
@@ -28834,7 +28825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="69" t="s">
         <v>340</v>
       </c>
@@ -28845,7 +28836,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="85">
         <v>0</v>
@@ -28854,7 +28845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="69" t="s">
         <v>198</v>
       </c>
@@ -28871,7 +28862,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="85">
         <v>1</v>
@@ -28880,7 +28871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="69" t="s">
         <v>339</v>
       </c>
@@ -28891,7 +28882,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="85">
         <v>0</v>
@@ -28900,7 +28891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">
         <v>340</v>
       </c>
@@ -28911,7 +28902,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="85">
         <v>0</v>
@@ -28920,7 +28911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
         <v>196</v>
       </c>
@@ -28937,7 +28928,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="85">
         <v>1</v>
@@ -28946,7 +28937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="69" t="s">
         <v>339</v>
       </c>
@@ -28957,7 +28948,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="85">
         <v>0</v>
@@ -28966,7 +28957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="69" t="s">
         <v>340</v>
       </c>
@@ -28977,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="85">
         <v>0</v>
@@ -28986,7 +28977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
         <v>195</v>
       </c>
@@ -29003,7 +28994,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="85">
         <v>1</v>
@@ -29012,7 +29003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="69" t="s">
         <v>339</v>
       </c>
@@ -29023,7 +29014,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="85">
         <v>0</v>
@@ -29032,7 +29023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C38" s="69" t="s">
         <v>340</v>
       </c>
@@ -29043,7 +29034,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="85">
         <v>0</v>
@@ -29052,7 +29043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="69" t="s">
         <v>194</v>
       </c>
@@ -29069,7 +29060,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="85">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="85">
         <v>1</v>
@@ -29078,7 +29069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C40" s="69" t="s">
         <v>339</v>
       </c>
@@ -29089,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="85">
         <v>0</v>
@@ -29098,7 +29089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="69" t="s">
         <v>340</v>
       </c>
@@ -29109,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="85">
         <v>0</v>
@@ -29118,7 +29109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="69" t="s">
         <v>200</v>
       </c>
@@ -29135,7 +29126,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="85">
         <v>0.3</v>
@@ -29144,7 +29135,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="69" t="s">
         <v>339</v>
       </c>
@@ -29155,7 +29146,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="85">
         <v>0.5</v>
@@ -29164,7 +29155,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="69" t="s">
         <v>340</v>
       </c>
@@ -29175,7 +29166,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="85">
         <v>0.65</v>
@@ -29184,7 +29175,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="69" t="s">
         <v>82</v>
       </c>
@@ -29198,7 +29189,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="85">
         <v>0.3</v>
@@ -29207,7 +29198,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="69" t="s">
         <v>339</v>
       </c>
@@ -29218,7 +29209,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="85">
         <v>0.49</v>
@@ -29227,7 +29218,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="69" t="s">
         <v>340</v>
       </c>
@@ -29238,7 +29229,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="85">
         <v>0.52</v>
@@ -29247,7 +29238,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="69" t="s">
         <v>190</v>
       </c>
@@ -29264,7 +29255,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="85">
         <v>0.88</v>
@@ -29273,27 +29264,27 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C49" s="69" t="s">
         <v>339</v>
       </c>
       <c r="D49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="85">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="85">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.78409090909090906</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="69" t="s">
         <v>199</v>
       </c>
@@ -29304,22 +29295,22 @@
         <v>338</v>
       </c>
       <c r="D50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="85">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.88372093023255816</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C51" s="69" t="s">
         <v>339</v>
       </c>
@@ -29330,7 +29321,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="85">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="85">
         <v>0.86</v>
@@ -29339,7 +29330,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="69" t="s">
         <v>183</v>
       </c>
@@ -29356,7 +29347,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="85">
         <v>0</v>
@@ -29365,7 +29356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" s="69" t="s">
         <v>339</v>
       </c>
@@ -29376,7 +29367,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="85">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="85">
         <v>0</v>
@@ -29385,14 +29376,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
         <v>330</v>
       </c>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>156</v>
       </c>
@@ -29418,7 +29409,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="69" t="s">
         <v>193</v>
       </c>
@@ -29438,18 +29429,18 @@
       </c>
       <c r="F57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="85">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.35526315789473689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C58" s="69" t="s">
         <v>339</v>
       </c>
@@ -29463,18 +29454,18 @@
       </c>
       <c r="F58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="85">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.27692307692307688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="69" t="s">
         <v>340</v>
       </c>
@@ -29488,18 +29479,18 @@
       </c>
       <c r="F59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="G59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
+        <v>0.34656716417910466</v>
       </c>
       <c r="H59" s="85">
         <f t="shared" si="0"/>
-        <v>0.3465671641791046</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.34656716417910466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="69" t="s">
         <v>191</v>
       </c>
@@ -29530,7 +29521,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="69" t="s">
         <v>340</v>
       </c>
@@ -29544,18 +29535,18 @@
       </c>
       <c r="F61" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G61" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H61" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="69" t="s">
         <v>204</v>
       </c>
@@ -29583,7 +29574,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="69" t="s">
         <v>340</v>
       </c>
@@ -29597,18 +29588,18 @@
       </c>
       <c r="F63" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G63" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H63" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="69" t="s">
         <v>184</v>
       </c>
@@ -29639,7 +29630,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C65" s="69" t="s">
         <v>340</v>
       </c>
@@ -29653,18 +29644,18 @@
       </c>
       <c r="F65" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G65" s="85">
         <f t="shared" si="0"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H65" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="69" t="s">
         <v>204</v>
       </c>
@@ -29692,7 +29683,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C67" s="69" t="s">
         <v>340</v>
       </c>
@@ -29706,18 +29697,18 @@
       </c>
       <c r="F67" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G67" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H67" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="69" t="s">
         <v>192</v>
       </c>
@@ -29748,7 +29739,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C69" s="69" t="s">
         <v>340</v>
       </c>
@@ -29762,18 +29753,18 @@
       </c>
       <c r="F69" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G69" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H69" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="69" t="s">
         <v>204</v>
       </c>
@@ -29801,7 +29792,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C71" s="69" t="s">
         <v>340</v>
       </c>
@@ -29815,18 +29806,18 @@
       </c>
       <c r="F71" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="G71" s="85">
         <f t="shared" si="1"/>
-        <v>0.23373134328358205</v>
+        <v>0.23373134328358211</v>
       </c>
       <c r="H71" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="69" t="s">
         <v>169</v>
       </c>
@@ -29857,7 +29848,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C73" s="69" t="s">
         <v>340</v>
       </c>
@@ -29871,7 +29862,7 @@
       </c>
       <c r="F73" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="85">
         <f t="shared" si="1"/>
@@ -29882,7 +29873,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="69" t="s">
         <v>204</v>
       </c>
@@ -29910,7 +29901,7 @@
         <v>0.30150000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C75" s="69" t="s">
         <v>340</v>
       </c>
@@ -29924,7 +29915,7 @@
       </c>
       <c r="F75" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="85">
         <f t="shared" si="1"/>
@@ -29935,7 +29926,7 @@
         <v>0.55800000000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="69" t="s">
         <v>174</v>
       </c>
@@ -29947,7 +29938,7 @@
       </c>
       <c r="D76" s="85">
         <f t="shared" si="1"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="85">
         <f t="shared" si="1"/>
@@ -29955,7 +29946,7 @@
       </c>
       <c r="F76" s="85">
         <f t="shared" si="1"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="85">
         <f t="shared" si="1"/>
@@ -29966,7 +29957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77" s="69" t="s">
         <v>339</v>
       </c>
@@ -29980,7 +29971,7 @@
       </c>
       <c r="F77" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="85">
         <f t="shared" si="2"/>
@@ -29991,7 +29982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="69" t="s">
         <v>172</v>
       </c>
@@ -30003,7 +29994,7 @@
       </c>
       <c r="D78" s="85">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="85">
         <f t="shared" si="2"/>
@@ -30011,7 +30002,7 @@
       </c>
       <c r="F78" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="85">
         <f t="shared" si="2"/>
@@ -30022,7 +30013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C79" s="69" t="s">
         <v>339</v>
       </c>
@@ -30036,7 +30027,7 @@
       </c>
       <c r="F79" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="85">
         <f t="shared" si="2"/>
@@ -30047,7 +30038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="69" t="s">
         <v>173</v>
       </c>
@@ -30059,7 +30050,7 @@
       </c>
       <c r="D80" s="85">
         <f t="shared" si="2"/>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="85">
         <f t="shared" si="2"/>
@@ -30067,7 +30058,7 @@
       </c>
       <c r="F80" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="85">
         <f t="shared" si="2"/>
@@ -30078,7 +30069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C81" s="69" t="s">
         <v>339</v>
       </c>
@@ -30092,7 +30083,7 @@
       </c>
       <c r="F81" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="85">
         <f t="shared" si="2"/>
@@ -30103,7 +30094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="69" t="s">
         <v>197</v>
       </c>
@@ -30123,7 +30114,7 @@
       </c>
       <c r="F82" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="85">
         <f t="shared" si="2"/>
@@ -30134,7 +30125,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C83" s="69" t="s">
         <v>339</v>
       </c>
@@ -30148,7 +30139,7 @@
       </c>
       <c r="F83" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="85">
         <f t="shared" si="2"/>
@@ -30159,7 +30150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C84" s="69" t="s">
         <v>340</v>
       </c>
@@ -30173,7 +30164,7 @@
       </c>
       <c r="F84" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="85">
         <f t="shared" si="2"/>
@@ -30184,7 +30175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="69" t="s">
         <v>198</v>
       </c>
@@ -30204,7 +30195,7 @@
       </c>
       <c r="F85" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="85">
         <f t="shared" si="2"/>
@@ -30215,7 +30206,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C86" s="69" t="s">
         <v>339</v>
       </c>
@@ -30229,7 +30220,7 @@
       </c>
       <c r="F86" s="85">
         <f t="shared" si="2"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="85">
         <f t="shared" si="2"/>
@@ -30240,7 +30231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C87" s="69" t="s">
         <v>340</v>
       </c>
@@ -30254,7 +30245,7 @@
       </c>
       <c r="F87" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="85">
         <f t="shared" si="3"/>
@@ -30265,7 +30256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="69" t="s">
         <v>196</v>
       </c>
@@ -30285,7 +30276,7 @@
       </c>
       <c r="F88" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="85">
         <f t="shared" si="3"/>
@@ -30296,7 +30287,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C89" s="69" t="s">
         <v>339</v>
       </c>
@@ -30310,7 +30301,7 @@
       </c>
       <c r="F89" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="85">
         <f t="shared" si="3"/>
@@ -30321,7 +30312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C90" s="69" t="s">
         <v>340</v>
       </c>
@@ -30335,7 +30326,7 @@
       </c>
       <c r="F90" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="85">
         <f t="shared" si="3"/>
@@ -30346,7 +30337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="69" t="s">
         <v>195</v>
       </c>
@@ -30366,7 +30357,7 @@
       </c>
       <c r="F91" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="85">
         <f t="shared" si="3"/>
@@ -30377,7 +30368,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C92" s="69" t="s">
         <v>339</v>
       </c>
@@ -30391,7 +30382,7 @@
       </c>
       <c r="F92" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="85">
         <f t="shared" si="3"/>
@@ -30402,7 +30393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C93" s="69" t="s">
         <v>340</v>
       </c>
@@ -30416,7 +30407,7 @@
       </c>
       <c r="F93" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="85">
         <f t="shared" si="3"/>
@@ -30427,7 +30418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="69" t="s">
         <v>194</v>
       </c>
@@ -30447,7 +30438,7 @@
       </c>
       <c r="F94" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="85">
         <f t="shared" si="3"/>
@@ -30458,7 +30449,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C95" s="69" t="s">
         <v>339</v>
       </c>
@@ -30472,7 +30463,7 @@
       </c>
       <c r="F95" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="85">
         <f t="shared" si="3"/>
@@ -30483,7 +30474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C96" s="69" t="s">
         <v>340</v>
       </c>
@@ -30497,7 +30488,7 @@
       </c>
       <c r="F96" s="85">
         <f t="shared" si="3"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="85">
         <f t="shared" si="3"/>
@@ -30508,7 +30499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="69" t="s">
         <v>200</v>
       </c>
@@ -30528,7 +30519,7 @@
       </c>
       <c r="F97" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="85">
         <f t="shared" si="4"/>
@@ -30539,7 +30530,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C98" s="69" t="s">
         <v>339</v>
       </c>
@@ -30553,7 +30544,7 @@
       </c>
       <c r="F98" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="85">
         <f t="shared" si="4"/>
@@ -30564,7 +30555,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C99" s="69" t="s">
         <v>340</v>
       </c>
@@ -30578,7 +30569,7 @@
       </c>
       <c r="F99" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="85">
         <f t="shared" si="4"/>
@@ -30589,7 +30580,7 @@
         <v>0.58500000000000008</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="69" t="s">
         <v>82</v>
       </c>
@@ -30606,7 +30597,7 @@
       </c>
       <c r="F100" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="85">
         <f t="shared" si="4"/>
@@ -30617,7 +30608,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C101" s="69" t="s">
         <v>339</v>
       </c>
@@ -30631,7 +30622,7 @@
       </c>
       <c r="F101" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="85">
         <f t="shared" si="4"/>
@@ -30642,7 +30633,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C102" s="69" t="s">
         <v>340</v>
       </c>
@@ -30656,7 +30647,7 @@
       </c>
       <c r="F102" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="85">
         <f t="shared" si="4"/>
@@ -30667,7 +30658,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="69" t="s">
         <v>190</v>
       </c>
@@ -30687,7 +30678,7 @@
       </c>
       <c r="F103" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="85">
         <f t="shared" si="4"/>
@@ -30698,32 +30689,32 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C104" s="69" t="s">
         <v>339</v>
       </c>
       <c r="D104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="85">
         <f t="shared" si="4"/>
-        <v>0.83700000000000008</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.70568181818181819</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="69" t="s">
         <v>199</v>
       </c>
@@ -30735,26 +30726,26 @@
       </c>
       <c r="D105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="85">
         <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.79534883720930238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C106" s="69" t="s">
         <v>339</v>
       </c>
@@ -30768,7 +30759,7 @@
       </c>
       <c r="F106" s="85">
         <f t="shared" si="4"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="85">
         <f t="shared" si="4"/>
@@ -30779,7 +30770,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="69" t="s">
         <v>183</v>
       </c>
@@ -30799,7 +30790,7 @@
       </c>
       <c r="F107" s="85">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="85">
         <f t="shared" si="5"/>
@@ -30810,7 +30801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C108" s="69" t="s">
         <v>339</v>
       </c>
@@ -30824,7 +30815,7 @@
       </c>
       <c r="F108" s="85">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="85">
         <f t="shared" si="5"/>
@@ -30835,14 +30826,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="89" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
         <v>333</v>
       </c>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="52" t="s">
         <v>156</v>
       </c>
@@ -30868,7 +30859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="69" t="s">
         <v>193</v>
       </c>
@@ -30888,18 +30879,18 @@
       </c>
       <c r="F112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="85">
         <f t="shared" si="6"/>
-        <v>0.35175000000000006</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.41447368421052638</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C113" s="69" t="s">
         <v>339</v>
       </c>
@@ -30913,18 +30904,18 @@
       </c>
       <c r="F113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="85">
         <f t="shared" si="6"/>
-        <v>0.55791044776119403</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.32307692307692304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C114" s="69" t="s">
         <v>340</v>
       </c>
@@ -30938,18 +30929,18 @@
       </c>
       <c r="F114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="G114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
+        <v>0.40432835820895546</v>
       </c>
       <c r="H114" s="85">
         <f t="shared" si="6"/>
-        <v>0.40432835820895541</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.40432835820895546</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="69" t="s">
         <v>191</v>
       </c>
@@ -30980,7 +30971,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C116" s="69" t="s">
         <v>340</v>
       </c>
@@ -30994,18 +30985,18 @@
       </c>
       <c r="F116" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G116" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H116" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B117" s="69" t="s">
         <v>204</v>
       </c>
@@ -31033,7 +31024,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C118" s="69" t="s">
         <v>340</v>
       </c>
@@ -31047,18 +31038,18 @@
       </c>
       <c r="F118" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G118" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H118" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="69" t="s">
         <v>184</v>
       </c>
@@ -31089,7 +31080,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C120" s="69" t="s">
         <v>340</v>
       </c>
@@ -31103,18 +31094,18 @@
       </c>
       <c r="F120" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G120" s="85">
         <f t="shared" si="6"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H120" s="85">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B121" s="69" t="s">
         <v>204</v>
       </c>
@@ -31142,7 +31133,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C122" s="69" t="s">
         <v>340</v>
       </c>
@@ -31156,18 +31147,18 @@
       </c>
       <c r="F122" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G122" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H122" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="69" t="s">
         <v>192</v>
       </c>
@@ -31198,7 +31189,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C124" s="69" t="s">
         <v>340</v>
       </c>
@@ -31212,18 +31203,18 @@
       </c>
       <c r="F124" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G124" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H124" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125" s="69" t="s">
         <v>204</v>
       </c>
@@ -31251,7 +31242,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C126" s="69" t="s">
         <v>340</v>
       </c>
@@ -31265,18 +31256,18 @@
       </c>
       <c r="F126" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="G126" s="85">
         <f t="shared" si="7"/>
-        <v>0.27268656716417905</v>
+        <v>0.27268656716417916</v>
       </c>
       <c r="H126" s="85">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="69" t="s">
         <v>169</v>
       </c>
@@ -31307,7 +31298,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C128" s="69" t="s">
         <v>340</v>
       </c>
@@ -31321,7 +31312,7 @@
       </c>
       <c r="F128" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="85">
         <f t="shared" si="7"/>
@@ -31332,7 +31323,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="69" t="s">
         <v>204</v>
       </c>
@@ -31360,7 +31351,7 @@
         <v>0.35175000000000006</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C130" s="69" t="s">
         <v>340</v>
       </c>
@@ -31374,7 +31365,7 @@
       </c>
       <c r="F130" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="85">
         <f t="shared" si="7"/>
@@ -31385,7 +31376,7 @@
         <v>0.65100000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="69" t="s">
         <v>174</v>
       </c>
@@ -31397,7 +31388,7 @@
       </c>
       <c r="D131" s="85">
         <f t="shared" si="7"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="85">
         <f t="shared" si="7"/>
@@ -31405,7 +31396,7 @@
       </c>
       <c r="F131" s="85">
         <f t="shared" si="7"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="85">
         <f t="shared" si="7"/>
@@ -31416,7 +31407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C132" s="69" t="s">
         <v>339</v>
       </c>
@@ -31430,7 +31421,7 @@
       </c>
       <c r="F132" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="85">
         <f t="shared" si="8"/>
@@ -31441,7 +31432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="69" t="s">
         <v>172</v>
       </c>
@@ -31453,7 +31444,7 @@
       </c>
       <c r="D133" s="85">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="85">
         <f t="shared" si="8"/>
@@ -31461,7 +31452,7 @@
       </c>
       <c r="F133" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="85">
         <f t="shared" si="8"/>
@@ -31472,7 +31463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C134" s="69" t="s">
         <v>339</v>
       </c>
@@ -31486,7 +31477,7 @@
       </c>
       <c r="F134" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="85">
         <f t="shared" si="8"/>
@@ -31497,7 +31488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="69" t="s">
         <v>173</v>
       </c>
@@ -31509,7 +31500,7 @@
       </c>
       <c r="D135" s="85">
         <f t="shared" si="8"/>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="85">
         <f t="shared" si="8"/>
@@ -31517,7 +31508,7 @@
       </c>
       <c r="F135" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="85">
         <f t="shared" si="8"/>
@@ -31528,7 +31519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C136" s="69" t="s">
         <v>339</v>
       </c>
@@ -31542,7 +31533,7 @@
       </c>
       <c r="F136" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="85">
         <f t="shared" si="8"/>
@@ -31553,7 +31544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="69" t="s">
         <v>197</v>
       </c>
@@ -31573,7 +31564,7 @@
       </c>
       <c r="F137" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="85">
         <f t="shared" si="8"/>
@@ -31584,7 +31575,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C138" s="69" t="s">
         <v>339</v>
       </c>
@@ -31598,7 +31589,7 @@
       </c>
       <c r="F138" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="85">
         <f t="shared" si="8"/>
@@ -31609,7 +31600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C139" s="69" t="s">
         <v>340</v>
       </c>
@@ -31623,7 +31614,7 @@
       </c>
       <c r="F139" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="85">
         <f t="shared" si="8"/>
@@ -31634,7 +31625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="69" t="s">
         <v>198</v>
       </c>
@@ -31654,7 +31645,7 @@
       </c>
       <c r="F140" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="85">
         <f t="shared" si="8"/>
@@ -31665,7 +31656,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C141" s="69" t="s">
         <v>339</v>
       </c>
@@ -31679,7 +31670,7 @@
       </c>
       <c r="F141" s="85">
         <f t="shared" si="8"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="85">
         <f t="shared" si="8"/>
@@ -31690,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C142" s="69" t="s">
         <v>340</v>
       </c>
@@ -31704,7 +31695,7 @@
       </c>
       <c r="F142" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="85">
         <f t="shared" si="9"/>
@@ -31715,7 +31706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="69" t="s">
         <v>196</v>
       </c>
@@ -31735,7 +31726,7 @@
       </c>
       <c r="F143" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="85">
         <f t="shared" si="9"/>
@@ -31746,7 +31737,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C144" s="69" t="s">
         <v>339</v>
       </c>
@@ -31760,7 +31751,7 @@
       </c>
       <c r="F144" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="85">
         <f t="shared" si="9"/>
@@ -31771,7 +31762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C145" s="69" t="s">
         <v>340</v>
       </c>
@@ -31785,7 +31776,7 @@
       </c>
       <c r="F145" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="85">
         <f t="shared" si="9"/>
@@ -31796,7 +31787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="69" t="s">
         <v>195</v>
       </c>
@@ -31816,7 +31807,7 @@
       </c>
       <c r="F146" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="85">
         <f t="shared" si="9"/>
@@ -31827,7 +31818,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C147" s="69" t="s">
         <v>339</v>
       </c>
@@ -31841,7 +31832,7 @@
       </c>
       <c r="F147" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="85">
         <f t="shared" si="9"/>
@@ -31852,7 +31843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C148" s="69" t="s">
         <v>340</v>
       </c>
@@ -31866,7 +31857,7 @@
       </c>
       <c r="F148" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="85">
         <f t="shared" si="9"/>
@@ -31877,7 +31868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="69" t="s">
         <v>194</v>
       </c>
@@ -31897,7 +31888,7 @@
       </c>
       <c r="F149" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="85">
         <f t="shared" si="9"/>
@@ -31908,7 +31899,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C150" s="69" t="s">
         <v>339</v>
       </c>
@@ -31922,7 +31913,7 @@
       </c>
       <c r="F150" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="85">
         <f t="shared" si="9"/>
@@ -31933,7 +31924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C151" s="69" t="s">
         <v>340</v>
       </c>
@@ -31947,7 +31938,7 @@
       </c>
       <c r="F151" s="85">
         <f t="shared" si="9"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="85">
         <f t="shared" si="9"/>
@@ -31958,7 +31949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="69" t="s">
         <v>200</v>
       </c>
@@ -31978,7 +31969,7 @@
       </c>
       <c r="F152" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="85">
         <f t="shared" si="10"/>
@@ -31989,7 +31980,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C153" s="69" t="s">
         <v>339</v>
       </c>
@@ -32003,7 +31994,7 @@
       </c>
       <c r="F153" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="85">
         <f t="shared" si="10"/>
@@ -32014,7 +32005,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C154" s="69" t="s">
         <v>340</v>
       </c>
@@ -32028,7 +32019,7 @@
       </c>
       <c r="F154" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="85">
         <f t="shared" si="10"/>
@@ -32039,7 +32030,7 @@
         <v>0.68250000000000011</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="69" t="s">
         <v>82</v>
       </c>
@@ -32056,7 +32047,7 @@
       </c>
       <c r="F155" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="85">
         <f t="shared" si="10"/>
@@ -32067,7 +32058,7 @@
         <v>0.315</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C156" s="69" t="s">
         <v>339</v>
       </c>
@@ -32081,7 +32072,7 @@
       </c>
       <c r="F156" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="85">
         <f t="shared" si="10"/>
@@ -32092,7 +32083,7 @@
         <v>0.51449999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C157" s="69" t="s">
         <v>340</v>
       </c>
@@ -32106,7 +32097,7 @@
       </c>
       <c r="F157" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="85">
         <f t="shared" si="10"/>
@@ -32117,7 +32108,7 @@
         <v>0.54600000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="69" t="s">
         <v>190</v>
       </c>
@@ -32137,7 +32128,7 @@
       </c>
       <c r="F158" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="85">
         <f t="shared" si="10"/>
@@ -32148,32 +32139,32 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C159" s="69" t="s">
         <v>339</v>
       </c>
       <c r="D159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="85">
         <f t="shared" si="10"/>
-        <v>0.97650000000000015</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.8232954545454545</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="69" t="s">
         <v>199</v>
       </c>
@@ -32185,26 +32176,26 @@
       </c>
       <c r="D160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="85">
         <f t="shared" si="10"/>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+        <v>0.9279069767441861</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C161" s="69" t="s">
         <v>339</v>
       </c>
@@ -32218,7 +32209,7 @@
       </c>
       <c r="F161" s="85">
         <f t="shared" si="10"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="85">
         <f t="shared" si="10"/>
@@ -32229,7 +32220,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="69" t="s">
         <v>183</v>
       </c>
@@ -32249,7 +32240,7 @@
       </c>
       <c r="F162" s="85">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="85">
         <f t="shared" si="11"/>
@@ -32260,7 +32251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C163" s="69" t="s">
         <v>339</v>
       </c>
@@ -32274,7 +32265,7 @@
       </c>
       <c r="F163" s="85">
         <f t="shared" si="11"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="85">
         <f t="shared" si="11"/>
@@ -32303,17 +32294,17 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="96" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="96" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="96" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="96" customWidth="1"/>
-    <col min="8" max="12" width="12.81640625" style="96" customWidth="1"/>
-    <col min="13" max="16384" width="12.81640625" style="96"/>
+    <col min="2" max="2" width="27.44140625" style="96" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="96" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="96" customWidth="1"/>
+    <col min="8" max="12" width="12.77734375" style="96" customWidth="1"/>
+    <col min="13" max="16384" width="12.77734375" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>156</v>
       </c>
@@ -32335,7 +32326,7 @@
       </c>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>168</v>
       </c>
@@ -32359,7 +32350,7 @@
       </c>
       <c r="H2" s="69"/>
     </row>
-    <row r="3" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="96" t="s">
         <v>339</v>
       </c>
@@ -32377,7 +32368,7 @@
       </c>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>187</v>
       </c>
@@ -32401,7 +32392,7 @@
       </c>
       <c r="H4" s="78"/>
     </row>
-    <row r="5" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="96" t="s">
         <v>339</v>
       </c>
@@ -32419,7 +32410,7 @@
       </c>
       <c r="H5" s="69"/>
     </row>
-    <row r="6" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
         <v>186</v>
       </c>
@@ -32443,7 +32434,7 @@
       </c>
       <c r="H6" s="69"/>
     </row>
-    <row r="7" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="96" t="s">
         <v>339</v>
       </c>
@@ -32461,12 +32452,12 @@
       </c>
       <c r="H7" s="78"/>
     </row>
-    <row r="9" spans="1:8" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="88" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>156</v>
       </c>
@@ -32487,7 +32478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
         <v>168</v>
       </c>
@@ -32514,7 +32505,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="96" t="s">
         <v>339</v>
       </c>
@@ -32535,7 +32526,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="78" t="s">
         <v>187</v>
       </c>
@@ -32562,7 +32553,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="96" t="s">
         <v>339</v>
       </c>
@@ -32583,7 +32574,7 @@
         <v>0.53100000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
         <v>186</v>
       </c>
@@ -32610,7 +32601,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="96" t="s">
         <v>339</v>
       </c>
@@ -32631,12 +32622,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="88" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="88" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="88" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
         <v>156</v>
       </c>
@@ -32657,7 +32648,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>168</v>
       </c>
@@ -32684,7 +32675,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="96" t="s">
         <v>339</v>
       </c>
@@ -32705,7 +32696,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>187</v>
       </c>
@@ -32732,7 +32723,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="96" t="s">
         <v>339</v>
       </c>
@@ -32753,7 +32744,7 @@
         <v>0.61949999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
         <v>186</v>
       </c>
@@ -32780,7 +32771,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25" s="96" t="s">
         <v>339</v>
       </c>
@@ -32814,18 +32805,18 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2021) attributable to cause</v>
@@ -32836,7 +32827,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -32919,23 +32910,23 @@
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="108" t="s">
+      <c r="F13" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="11"/>
@@ -33053,7 +33044,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -33133,9 +33124,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CrboYc9UX5XSMoZI2d3seDbxq0FUwO6lHlv5QmdA7waCd6mIaG1DALJ+ohk1ZEupXGBqUgyfWO87Q9fa1n0GZg==" saltValue="hE5A2AlDlVLsyN6mlReVUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6+Fd3+lM6F7CC5nfFjMDqczCxNwVKDBM6mVepSMFM7+v73SgdhSv8TfnfC8nlMe7xcq13q6MIjDLhTIelvMcKQ==" saltValue="kqEZBqN0TYQlZLQiK64T3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -33150,13 +33141,13 @@
       <selection activeCell="C15" activeCellId="2" sqref="C2:G3 C8:G9 C15:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2021)</v>
@@ -33507,13 +33498,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2021)</v>
@@ -33613,14 +33604,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="102" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="102" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="102"/>
+    <col min="2" max="2" width="29.44140625" style="102" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>123</v>
       </c>
@@ -33655,7 +33646,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>125</v>
       </c>
@@ -33672,10 +33663,10 @@
       <c r="J2" s="104"/>
       <c r="K2" s="104"/>
     </row>
-    <row r="3" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="103"/>
     </row>
-    <row r="4" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>127</v>
       </c>
@@ -33692,10 +33683,10 @@
       <c r="J4" s="104"/>
       <c r="K4" s="104"/>
     </row>
-    <row r="5" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>
     </row>
-    <row r="6" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>128</v>
       </c>
@@ -33712,7 +33703,7 @@
       <c r="J6" s="104"/>
       <c r="K6" s="104"/>
     </row>
-    <row r="7" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="103" t="s">
         <v>90</v>
       </c>
@@ -33726,7 +33717,7 @@
       <c r="J7" s="104"/>
       <c r="K7" s="104"/>
     </row>
-    <row r="8" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="103" t="s">
         <v>129</v>
       </c>
@@ -33740,7 +33731,7 @@
       <c r="J8" s="104"/>
       <c r="K8" s="104"/>
     </row>
-    <row r="10" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
         <v>130</v>
       </c>
@@ -33757,7 +33748,7 @@
       <c r="J10" s="104"/>
       <c r="K10" s="104"/>
     </row>
-    <row r="11" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="103" t="s">
         <v>132</v>
       </c>
@@ -33771,7 +33762,7 @@
       <c r="J11" s="104"/>
       <c r="K11" s="104"/>
     </row>
-    <row r="13" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
         <v>32</v>
       </c>
@@ -33788,7 +33779,7 @@
       <c r="J13" s="104"/>
       <c r="K13" s="104"/>
     </row>
-    <row r="14" spans="1:11" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="103" t="s">
         <v>134</v>
       </c>
@@ -33820,14 +33811,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" style="102" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" style="102" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="102"/>
+    <col min="1" max="1" width="36.44140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="102" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>135</v>
       </c>
@@ -33835,7 +33826,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="102" t="s">
         <v>137</v>
       </c>
@@ -33843,7 +33834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>138</v>
       </c>
@@ -33851,7 +33842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
         <v>139</v>
       </c>
@@ -33859,7 +33850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>140</v>
       </c>
@@ -33867,7 +33858,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
         <v>141</v>
       </c>
@@ -33875,7 +33866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>142</v>
       </c>
@@ -33900,16 +33891,16 @@
       <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="96" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="96" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="96" customWidth="1"/>
-    <col min="4" max="8" width="11.453125" style="96" customWidth="1"/>
-    <col min="9" max="16384" width="11.453125" style="96"/>
+    <col min="2" max="2" width="19.109375" style="96" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="96" customWidth="1"/>
+    <col min="4" max="8" width="11.44140625" style="96" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" style="96"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>143</v>
       </c>
@@ -33926,7 +33917,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>148</v>
       </c>
@@ -33940,7 +33931,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>67</v>
       </c>
@@ -33953,7 +33944,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>77</v>
       </c>
@@ -33966,7 +33957,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>78</v>
       </c>
@@ -33979,7 +33970,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>79</v>
       </c>
@@ -33992,7 +33983,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>149</v>
       </c>
@@ -34000,7 +33991,7 @@
       <c r="D7" s="20"/>
       <c r="E7" s="42"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>150</v>
       </c>
@@ -34014,7 +34005,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>67</v>
       </c>
@@ -34027,7 +34018,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
@@ -34040,7 +34031,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="22" t="s">
         <v>78</v>
       </c>
@@ -34053,7 +34044,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>79</v>
       </c>
@@ -34066,7 +34057,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>149</v>
       </c>
@@ -34074,7 +34065,7 @@
       <c r="D14" s="20"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>152</v>
       </c>
@@ -34088,7 +34079,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>67</v>
       </c>
@@ -34101,7 +34092,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="22" t="s">
         <v>77</v>
       </c>
@@ -34114,7 +34105,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>78</v>
       </c>
@@ -34125,7 +34116,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>79</v>
       </c>
@@ -34136,7 +34127,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>149</v>
       </c>
@@ -34162,15 +34153,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
@@ -34184,7 +34175,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>156</v>
       </c>
@@ -34196,7 +34187,7 @@
       </c>
       <c r="D2" s="42"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>159</v>
       </c>

--- a/inputs/en/Optima_template.xlsx
+++ b/inputs/en/Optima_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412CDB60-4687-4849-96B1-112EA339DEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D5860E-EC3F-4805-ABA2-2CA7064D52EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1562,6 +1562,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1707,7 +1713,7 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1958,6 +1964,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -3511,7 +3520,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -13629,6 +13638,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GEHiGU/wzMESSzNocXwPkaIr4XGdamS9vmVQvyC3AZJHmUXgJGyneI4jc1TC32WmhOi7y0hwZVPwY8duXyz3Tw==" saltValue="r4SSSOoEaaDH7zhAAgw2UA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -13638,42 +13683,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -32805,8 +32814,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="2" sqref="C35 C23:F23 C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32917,16 +32926,16 @@
       <c r="B13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="108" t="s">
         <v>80</v>
       </c>
       <c r="G13" s="11"/>
@@ -33124,7 +33133,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6+Fd3+lM6F7CC5nfFjMDqczCxNwVKDBM6mVepSMFM7+v73SgdhSv8TfnfC8nlMe7xcq13q6MIjDLhTIelvMcKQ==" saltValue="kqEZBqN0TYQlZLQiK64T3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="qnQzdOn5cQaLZSe3pL+La83oDabUmWeaBSVqPQgFolyKNa5SuNEdcmE0/iEmnqAIVofZiW6ppGiVvAzBGez/mA==" saltValue="FYKrJdzLs+Bg6aoEj0Uuxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
